--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F0CE84-B5C9-487D-8434-E31250DFFB85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183626C-4C27-4372-BF51-4BEBFBA5DC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -344,6 +344,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,6 +396,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,37 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,54 +827,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="22">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="19">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="19">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1319,54 +1319,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="22">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="19">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="19">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1799,7 +1799,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1809,54 +1809,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="22">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="19">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="19">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2219,7 +2219,7 @@
       <c r="R6" s="15">
         <v>400</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="18">
         <v>394.1</v>
       </c>
       <c r="T6" s="15">
@@ -2298,54 +2298,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="22">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="19">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="19">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2504,7 +2504,7 @@
       <c r="R4" s="15">
         <v>1</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="17">
         <v>0.6</v>
       </c>
       <c r="T4" s="15">
@@ -2708,7 +2708,7 @@
       <c r="R6" s="15">
         <v>1</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="17">
         <v>0.6</v>
       </c>
       <c r="T6" s="15">
@@ -3228,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AW17" sqref="AW16:AW17"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BX26" sqref="BX26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3246,330 +3246,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="25">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="29">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="32">
         <v>4</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="22">
         <v>5</v>
       </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="19">
         <v>6</v>
       </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="19">
         <v>7</v>
       </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="19">
         <v>8</v>
       </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="21"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="35">
+        <v>1</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="39">
+        <v>3</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="35">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="51">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="35">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="45">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="51">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="39">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="48">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42">
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="35">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="42">
+      <c r="BM3" s="35">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42">
+      <c r="BN3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="35">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="42">
+      <c r="BP3" s="35">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42">
+      <c r="BQ3" s="35">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="35">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="42">
+      <c r="BS3" s="35">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="36">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="37">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="38">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42">
+      <c r="BW3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="35">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BY3" s="35">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42">
+      <c r="BZ3" s="35">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="35">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="42">
+      <c r="CB3" s="35">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42">
+      <c r="CC3" s="35">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="35">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="42">
+      <c r="CE3" s="35">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="36">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="37">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="38">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42">
+      <c r="CI3" s="35">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="35">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="42">
+      <c r="CK3" s="35">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42">
+      <c r="CL3" s="35">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="35">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="42">
+      <c r="CN3" s="35">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42">
+      <c r="CO3" s="35">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="35">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="42">
+      <c r="CQ3" s="35">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="36">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="37">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="38">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -3876,19 +3876,19 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="17">
         <v>0.99</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="17">
         <v>0.99</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="17">
         <v>0.99</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
       <c r="H5" s="15">
@@ -3912,67 +3912,67 @@
       <c r="N5" s="15">
         <v>1</v>
       </c>
-      <c r="O5" s="50">
-        <v>1</v>
-      </c>
-      <c r="P5" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="50">
-        <v>1</v>
-      </c>
-      <c r="R5" s="50">
+      <c r="O5" s="17">
+        <v>1</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1</v>
+      </c>
+      <c r="R5" s="17">
         <v>0.99</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="17">
         <v>1</v>
       </c>
       <c r="T5" s="15">
         <v>1</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U5" s="17">
         <v>0.99</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V5" s="17">
         <v>0.99</v>
       </c>
       <c r="W5" s="15">
         <v>1</v>
       </c>
-      <c r="X5" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="50">
+      <c r="X5" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="17">
         <v>1</v>
       </c>
       <c r="AJ5" s="15">
@@ -3984,7 +3984,7 @@
       <c r="AL5" s="15">
         <v>1</v>
       </c>
-      <c r="AM5" s="50">
+      <c r="AM5" s="17">
         <v>1</v>
       </c>
       <c r="AN5" s="15">
@@ -3993,19 +3993,19 @@
       <c r="AO5" s="15">
         <v>1</v>
       </c>
-      <c r="AP5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="50">
+      <c r="AP5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="17">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="17">
         <v>0.99</v>
       </c>
-      <c r="AT5" s="50">
+      <c r="AT5" s="17">
         <v>0.99</v>
       </c>
       <c r="AU5" s="15">
@@ -4020,13 +4020,13 @@
       <c r="AX5" s="15">
         <v>1</v>
       </c>
-      <c r="AY5" s="50">
+      <c r="AY5" s="17">
         <v>1</v>
       </c>
       <c r="AZ5" s="16">
         <v>1</v>
       </c>
-      <c r="BA5" s="50">
+      <c r="BA5" s="17">
         <v>1</v>
       </c>
       <c r="BB5" s="15">
@@ -4172,19 +4172,19 @@
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="17">
         <v>0.6</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="17">
         <v>0.62</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="17">
         <v>0.06</v>
       </c>
       <c r="H6" s="15">
@@ -4208,67 +4208,67 @@
       <c r="N6" s="15">
         <v>1</v>
       </c>
-      <c r="O6" s="50">
-        <v>1</v>
-      </c>
-      <c r="P6" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="50">
-        <v>1</v>
-      </c>
-      <c r="R6" s="50">
+      <c r="O6" s="17">
+        <v>1</v>
+      </c>
+      <c r="P6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>1</v>
+      </c>
+      <c r="R6" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="17">
         <v>0.06</v>
       </c>
       <c r="T6" s="15">
         <v>1</v>
       </c>
-      <c r="U6" s="50">
+      <c r="U6" s="17">
         <v>0.6</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6" s="17">
         <v>0.62</v>
       </c>
       <c r="W6" s="15">
         <v>1</v>
       </c>
-      <c r="X6" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="50">
+      <c r="X6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="17">
         <v>0.1</v>
       </c>
-      <c r="AB6" s="50">
+      <c r="AB6" s="17">
         <v>0.4</v>
       </c>
-      <c r="AC6" s="50">
+      <c r="AC6" s="17">
         <v>0.8</v>
       </c>
-      <c r="AD6" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="50">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="50">
+      <c r="AD6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="17">
         <v>0.1</v>
       </c>
-      <c r="AH6" s="50">
+      <c r="AH6" s="17">
         <v>0.4</v>
       </c>
-      <c r="AI6" s="50">
+      <c r="AI6" s="17">
         <v>0.8</v>
       </c>
       <c r="AJ6" s="15">
@@ -4280,7 +4280,7 @@
       <c r="AL6" s="15">
         <v>1</v>
       </c>
-      <c r="AM6" s="50">
+      <c r="AM6" s="17">
         <v>0.06</v>
       </c>
       <c r="AN6" s="15">
@@ -4289,19 +4289,19 @@
       <c r="AO6" s="15">
         <v>1</v>
       </c>
-      <c r="AP6" s="50">
+      <c r="AP6" s="17">
         <v>0.1</v>
       </c>
-      <c r="AQ6" s="50">
+      <c r="AQ6" s="17">
         <v>0.4</v>
       </c>
-      <c r="AR6" s="50">
+      <c r="AR6" s="17">
         <v>0.8</v>
       </c>
-      <c r="AS6" s="50">
+      <c r="AS6" s="17">
         <v>0.6</v>
       </c>
-      <c r="AT6" s="50">
+      <c r="AT6" s="17">
         <v>0.62</v>
       </c>
       <c r="AU6" s="15">
@@ -4316,13 +4316,13 @@
       <c r="AX6" s="15">
         <v>1</v>
       </c>
-      <c r="AY6" s="50">
+      <c r="AY6" s="17">
         <v>0.02</v>
       </c>
       <c r="AZ6" s="16">
         <v>1</v>
       </c>
-      <c r="BA6" s="50">
+      <c r="BA6" s="17">
         <v>0.02</v>
       </c>
       <c r="BB6" s="15">
@@ -4468,19 +4468,19 @@
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="50">
-        <v>0</v>
-      </c>
-      <c r="D7" s="50">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
         <v>0.21</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="50">
-        <v>1</v>
-      </c>
-      <c r="G7" s="50">
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="15">
@@ -4504,67 +4504,67 @@
       <c r="N7" s="15">
         <v>1</v>
       </c>
-      <c r="O7" s="50">
-        <v>1</v>
-      </c>
-      <c r="P7" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="50">
-        <v>1</v>
-      </c>
-      <c r="R7" s="50">
-        <v>1</v>
-      </c>
-      <c r="S7" s="50">
+      <c r="O7" s="17">
+        <v>1</v>
+      </c>
+      <c r="P7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1</v>
+      </c>
+      <c r="S7" s="17">
         <v>1</v>
       </c>
       <c r="T7" s="15">
         <v>1</v>
       </c>
-      <c r="U7" s="50">
-        <v>0</v>
-      </c>
-      <c r="V7" s="50">
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
         <v>0.21</v>
       </c>
       <c r="W7" s="15">
         <v>1</v>
       </c>
-      <c r="X7" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="50">
+      <c r="X7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="17">
         <v>0.1</v>
       </c>
-      <c r="AB7" s="50">
+      <c r="AB7" s="17">
         <v>0.3</v>
       </c>
-      <c r="AC7" s="50">
+      <c r="AC7" s="17">
         <v>0.4</v>
       </c>
-      <c r="AD7" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="50">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="50">
+      <c r="AD7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="17">
         <v>0.1</v>
       </c>
-      <c r="AH7" s="50">
+      <c r="AH7" s="17">
         <v>0.3</v>
       </c>
-      <c r="AI7" s="50">
+      <c r="AI7" s="17">
         <v>0.4</v>
       </c>
       <c r="AJ7" s="15">
@@ -4576,7 +4576,7 @@
       <c r="AL7" s="15">
         <v>1</v>
       </c>
-      <c r="AM7" s="50">
+      <c r="AM7" s="17">
         <v>1</v>
       </c>
       <c r="AN7" s="15">
@@ -4585,19 +4585,19 @@
       <c r="AO7" s="15">
         <v>1</v>
       </c>
-      <c r="AP7" s="50">
+      <c r="AP7" s="17">
         <v>0.1</v>
       </c>
-      <c r="AQ7" s="50">
+      <c r="AQ7" s="17">
         <v>0.3</v>
       </c>
-      <c r="AR7" s="50">
+      <c r="AR7" s="17">
         <v>0.4</v>
       </c>
-      <c r="AS7" s="50">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="50">
+      <c r="AS7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="17">
         <v>0.21</v>
       </c>
       <c r="AU7" s="15">
@@ -4612,13 +4612,13 @@
       <c r="AX7" s="15">
         <v>1</v>
       </c>
-      <c r="AY7" s="50">
+      <c r="AY7" s="17">
         <v>0</v>
       </c>
       <c r="AZ7" s="16">
         <v>1</v>
       </c>
-      <c r="BA7" s="50">
+      <c r="BA7" s="17">
         <v>0</v>
       </c>
       <c r="BB7" s="15">
@@ -4764,19 +4764,19 @@
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="17">
         <v>0.5</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="17">
         <v>0.5</v>
       </c>
       <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="15">
@@ -4800,67 +4800,67 @@
       <c r="N8" s="15">
         <v>1</v>
       </c>
-      <c r="O8" s="50">
-        <v>0</v>
-      </c>
-      <c r="P8" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="50">
-        <v>0</v>
-      </c>
-      <c r="R8" s="50">
-        <v>1</v>
-      </c>
-      <c r="S8" s="50">
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1</v>
+      </c>
+      <c r="S8" s="17">
         <v>1</v>
       </c>
       <c r="T8" s="15">
         <v>1</v>
       </c>
-      <c r="U8" s="50">
+      <c r="U8" s="17">
         <v>0.5</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8" s="17">
         <v>0.5</v>
       </c>
       <c r="W8" s="15">
         <v>1</v>
       </c>
-      <c r="X8" s="50">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="50">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="50">
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="17">
         <v>0</v>
       </c>
       <c r="AJ8" s="15">
@@ -4872,7 +4872,7 @@
       <c r="AL8" s="15">
         <v>1</v>
       </c>
-      <c r="AM8" s="50">
+      <c r="AM8" s="17">
         <v>1</v>
       </c>
       <c r="AN8" s="15">
@@ -4881,19 +4881,19 @@
       <c r="AO8" s="15">
         <v>1</v>
       </c>
-      <c r="AP8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="50">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="50">
+      <c r="AP8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="17">
         <v>0.5</v>
       </c>
-      <c r="AT8" s="50">
+      <c r="AT8" s="17">
         <v>0.5</v>
       </c>
       <c r="AU8" s="15">
@@ -4908,13 +4908,13 @@
       <c r="AX8" s="15">
         <v>1</v>
       </c>
-      <c r="AY8" s="50">
+      <c r="AY8" s="17">
         <v>0</v>
       </c>
       <c r="AZ8" s="16">
         <v>1</v>
       </c>
-      <c r="BA8" s="50">
+      <c r="BA8" s="17">
         <v>0</v>
       </c>
       <c r="BB8" s="15">
@@ -5060,19 +5060,19 @@
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="50">
-        <v>0</v>
-      </c>
-      <c r="D9" s="50">
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
         <v>0</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="50">
-        <v>0</v>
-      </c>
-      <c r="G9" s="50">
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
         <v>0</v>
       </c>
       <c r="H9" s="15">
@@ -5096,67 +5096,67 @@
       <c r="N9" s="15">
         <v>1</v>
       </c>
-      <c r="O9" s="50">
-        <v>1</v>
-      </c>
-      <c r="P9" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="50">
-        <v>1</v>
-      </c>
-      <c r="R9" s="50">
-        <v>0</v>
-      </c>
-      <c r="S9" s="50">
+      <c r="O9" s="17">
+        <v>1</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>1</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
         <v>0</v>
       </c>
       <c r="T9" s="15">
         <v>1</v>
       </c>
-      <c r="U9" s="50">
-        <v>0</v>
-      </c>
-      <c r="V9" s="50">
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
         <v>0</v>
       </c>
       <c r="W9" s="15">
         <v>1</v>
       </c>
-      <c r="X9" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="50">
+      <c r="X9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="17">
         <v>0.4</v>
       </c>
-      <c r="AB9" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="50">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="50">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="50">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="50">
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="17">
         <v>0.4</v>
       </c>
-      <c r="AH9" s="50">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="50">
+      <c r="AH9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="17">
         <v>0</v>
       </c>
       <c r="AJ9" s="15">
@@ -5168,7 +5168,7 @@
       <c r="AL9" s="15">
         <v>1</v>
       </c>
-      <c r="AM9" s="50">
+      <c r="AM9" s="17">
         <v>0</v>
       </c>
       <c r="AN9" s="15">
@@ -5177,19 +5177,19 @@
       <c r="AO9" s="15">
         <v>1</v>
       </c>
-      <c r="AP9" s="50">
+      <c r="AP9" s="17">
         <v>0.4</v>
       </c>
-      <c r="AQ9" s="50">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="50">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="50">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="50">
+      <c r="AQ9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="17">
         <v>0</v>
       </c>
       <c r="AU9" s="15">
@@ -5204,13 +5204,13 @@
       <c r="AX9" s="15">
         <v>1</v>
       </c>
-      <c r="AY9" s="50">
+      <c r="AY9" s="17">
         <v>0.02</v>
       </c>
       <c r="AZ9" s="16">
         <v>1</v>
       </c>
-      <c r="BA9" s="50">
+      <c r="BA9" s="17">
         <v>0.02</v>
       </c>
       <c r="BB9" s="15">
@@ -5351,6 +5351,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5366,31 +5391,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5400,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="A18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AZ28" sqref="AZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5425,330 +5425,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="25">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="29">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="32">
         <v>4</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="22">
         <v>5</v>
       </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="19">
         <v>6</v>
       </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="19">
         <v>7</v>
       </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="19">
         <v>8</v>
       </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="21"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="35">
+        <v>1</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="39">
+        <v>3</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="35">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="51">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="35">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="45">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="51">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="39">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="48">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42">
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="35">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="42">
+      <c r="BM3" s="35">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42">
+      <c r="BN3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="35">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="42">
+      <c r="BP3" s="35">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42">
+      <c r="BQ3" s="35">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="35">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="42">
+      <c r="BS3" s="35">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="47">
+      <c r="BT3" s="36">
         <v>4</v>
       </c>
-      <c r="BU3" s="48">
+      <c r="BU3" s="37">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="49">
+      <c r="BV3" s="38">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42">
+      <c r="BW3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="35">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="42">
+      <c r="BY3" s="35">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42">
+      <c r="BZ3" s="35">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="35">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="42">
+      <c r="CB3" s="35">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42">
+      <c r="CC3" s="35">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="35">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="42">
+      <c r="CE3" s="35">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="47">
+      <c r="CF3" s="36">
         <v>4</v>
       </c>
-      <c r="CG3" s="48">
+      <c r="CG3" s="37">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="49">
+      <c r="CH3" s="38">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42">
+      <c r="CI3" s="35">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="35">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="42">
+      <c r="CK3" s="35">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42">
+      <c r="CL3" s="35">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="35">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="42">
+      <c r="CN3" s="35">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42">
+      <c r="CO3" s="35">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="35">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="42">
+      <c r="CQ3" s="35">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="47">
+      <c r="CR3" s="36">
         <v>4</v>
       </c>
-      <c r="CS3" s="48">
+      <c r="CS3" s="37">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="49">
+      <c r="CT3" s="38">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7530,21 +7530,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7561,15 +7555,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7596,284 +7596,284 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="23">
-        <v>2</v>
-      </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="25">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="29">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="32">
         <v>4</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="20">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="22">
         <v>5</v>
       </c>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="17">
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="19">
         <v>6</v>
       </c>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="18"/>
-      <c r="BT2" s="18"/>
-      <c r="BU2" s="18"/>
-      <c r="BV2" s="19"/>
-      <c r="BW2" s="17">
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="19">
         <v>7</v>
       </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
-      <c r="CD2" s="18"/>
-      <c r="CE2" s="18"/>
-      <c r="CF2" s="18"/>
-      <c r="CG2" s="18"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="17">
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="19">
         <v>8</v>
       </c>
-      <c r="CJ2" s="18"/>
-      <c r="CK2" s="18"/>
-      <c r="CL2" s="18"/>
-      <c r="CM2" s="18"/>
-      <c r="CN2" s="18"/>
-      <c r="CO2" s="18"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="18"/>
-      <c r="CR2" s="18"/>
-      <c r="CS2" s="18"/>
-      <c r="CT2" s="19"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="21"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43">
-        <v>2</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44">
-        <v>3</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
         <v>4</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="42">
-        <v>1</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42">
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="35">
+        <v>1</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="39">
+        <v>3</v>
+      </c>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="35">
         <v>4</v>
       </c>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="40">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="34">
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="51">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="35">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="51">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="45">
         <v>4</v>
       </c>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="37">
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="51">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="39">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="48">
         <v>4</v>
       </c>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="33">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="33">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="33"/>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33">
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44">
         <v>4</v>
       </c>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="47">
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="35"/>
+      <c r="BN3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="35"/>
+      <c r="BP3" s="35"/>
+      <c r="BQ3" s="35">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="35"/>
+      <c r="BT3" s="36">
         <v>4</v>
       </c>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="42">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="42"/>
-      <c r="CC3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="42"/>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="47">
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="38"/>
+      <c r="BW3" s="35">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="35"/>
+      <c r="BY3" s="35"/>
+      <c r="BZ3" s="35">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="35"/>
+      <c r="CB3" s="35"/>
+      <c r="CC3" s="35">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="35"/>
+      <c r="CE3" s="35"/>
+      <c r="CF3" s="36">
         <v>4</v>
       </c>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="42">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="42">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="47">
+      <c r="CG3" s="37"/>
+      <c r="CH3" s="38"/>
+      <c r="CI3" s="35">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="35"/>
+      <c r="CK3" s="35"/>
+      <c r="CL3" s="35">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="35"/>
+      <c r="CN3" s="35"/>
+      <c r="CO3" s="35">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="35"/>
+      <c r="CQ3" s="35"/>
+      <c r="CR3" s="36">
         <v>4</v>
       </c>
-      <c r="CS3" s="48"/>
-      <c r="CT3" s="49"/>
+      <c r="CS3" s="37"/>
+      <c r="CT3" s="38"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9061,21 +9061,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9092,15 +9086,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9154,54 +9154,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="22">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="19">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="19">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9312,7 +9312,7 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="17">
         <v>311000</v>
       </c>
       <c r="D4" s="9">
@@ -9330,7 +9330,7 @@
       <c r="H4" s="9">
         <v>21800</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="17">
         <v>311000</v>
       </c>
       <c r="J4" s="9">
@@ -9414,7 +9414,7 @@
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="17">
         <v>17400</v>
       </c>
       <c r="D5" s="9">
@@ -9432,7 +9432,7 @@
       <c r="H5" s="9">
         <v>140000</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="17">
         <v>17400</v>
       </c>
       <c r="J5" s="9">
@@ -9644,54 +9644,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="22">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="19">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="19">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10123,8 +10123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10134,54 +10134,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23">
-        <v>2</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="27">
-        <v>3</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="20">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="22">
         <v>5</v>
       </c>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="17">
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="19">
         <v>6</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="19">
         <v>7</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="19">
         <v>8</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10292,7 +10292,7 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="17">
         <v>311000</v>
       </c>
       <c r="D4" s="9">
@@ -10310,7 +10310,7 @@
       <c r="H4" s="9">
         <v>21800</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="17">
         <v>311000</v>
       </c>
       <c r="J4" s="9">
@@ -10340,7 +10340,7 @@
       <c r="R4" s="15">
         <v>999999</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="17">
         <v>60000</v>
       </c>
       <c r="T4" s="15">
@@ -10394,7 +10394,7 @@
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="17">
         <v>17400</v>
       </c>
       <c r="D5" s="9">
@@ -10412,7 +10412,7 @@
       <c r="H5" s="9">
         <v>140000</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="17">
         <v>17400</v>
       </c>
       <c r="J5" s="9">
@@ -10544,7 +10544,7 @@
       <c r="R6" s="15">
         <v>999999</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="17">
         <v>60000</v>
       </c>
       <c r="T6" s="15">

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183626C-4C27-4372-BF51-4BEBFBA5DC8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80522892-858E-4C01-AB76-905DB27F2CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -396,33 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,6 +418,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2288,7 +2288,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2777,7 +2777,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2931,7 +2931,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2951,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2962,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2984,7 +2984,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3228,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BX26" sqref="BX26"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3364,212 +3364,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
-        <v>1</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="35">
-        <v>1</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="39">
-        <v>3</v>
-      </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="35">
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="44">
+        <v>1</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="43">
+        <v>3</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="44">
         <v>4</v>
       </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="35">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="45">
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="42">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="36">
         <v>4</v>
       </c>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="51">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="39">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="48">
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="39">
         <v>4</v>
       </c>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="44">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44">
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35">
         <v>4</v>
       </c>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="35">
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="44">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="44">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="35">
+      <c r="BM3" s="44">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="35">
+      <c r="BN3" s="44">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="44">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="35">
+      <c r="BP3" s="44">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="35">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="35">
+      <c r="BQ3" s="44">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="44">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="35">
+      <c r="BS3" s="44">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="36">
+      <c r="BT3" s="49">
         <v>4</v>
       </c>
-      <c r="BU3" s="37">
+      <c r="BU3" s="50">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="38">
+      <c r="BV3" s="51">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="35">
+      <c r="BW3" s="44">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="44">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="35">
+      <c r="BY3" s="44">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="35">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="35">
+      <c r="BZ3" s="44">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="44">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="35">
+      <c r="CB3" s="44">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="35">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="35">
+      <c r="CC3" s="44">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="44">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="35">
+      <c r="CE3" s="44">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="36">
+      <c r="CF3" s="49">
         <v>4</v>
       </c>
-      <c r="CG3" s="37">
+      <c r="CG3" s="50">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="38">
+      <c r="CH3" s="51">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="35">
+      <c r="CI3" s="44">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="44">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="35">
+      <c r="CK3" s="44">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="35">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="35">
+      <c r="CL3" s="44">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="44">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="35">
+      <c r="CN3" s="44">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="35">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="35">
+      <c r="CO3" s="44">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="44">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="35">
+      <c r="CQ3" s="44">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="36">
+      <c r="CR3" s="49">
         <v>4</v>
       </c>
-      <c r="CS3" s="37">
+      <c r="CS3" s="50">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="38">
+      <c r="CT3" s="51">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4059,8 +4059,8 @@
       <c r="BK5" s="9">
         <v>1</v>
       </c>
-      <c r="BL5" s="9">
-        <v>1</v>
+      <c r="BL5" s="17">
+        <v>0.99</v>
       </c>
       <c r="BM5" s="15">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="BR5" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="BS5" s="15">
         <v>1</v>
@@ -4355,8 +4355,8 @@
       <c r="BK6" s="9">
         <v>1</v>
       </c>
-      <c r="BL6" s="9">
-        <v>0.02</v>
+      <c r="BL6" s="17">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BM6" s="15">
         <v>1</v>
@@ -4651,7 +4651,7 @@
       <c r="BK7" s="9">
         <v>1</v>
       </c>
-      <c r="BL7" s="9">
+      <c r="BL7" s="17">
         <v>1</v>
       </c>
       <c r="BM7" s="15">
@@ -4947,7 +4947,7 @@
       <c r="BK8" s="9">
         <v>1</v>
       </c>
-      <c r="BL8" s="9">
+      <c r="BL8" s="17">
         <v>1</v>
       </c>
       <c r="BM8" s="15">
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="BO8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8" s="15">
         <v>1</v>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="BY8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="9">
         <v>1</v>
@@ -5243,8 +5243,8 @@
       <c r="BK9" s="9">
         <v>1</v>
       </c>
-      <c r="BL9" s="9">
-        <v>1</v>
+      <c r="BL9" s="17">
+        <v>0</v>
       </c>
       <c r="BM9" s="15">
         <v>1</v>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="BO9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP9" s="15">
         <v>1</v>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="BY9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ9" s="9">
         <v>1</v>
@@ -5351,6 +5351,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5366,31 +5391,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5400,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AZ28" sqref="AZ28"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5543,212 +5543,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
-        <v>1</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="35">
-        <v>1</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="39">
-        <v>3</v>
-      </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="35">
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="44">
+        <v>1</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="43">
+        <v>3</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="44">
         <v>4</v>
       </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="35">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="45">
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="42">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="36">
         <v>4</v>
       </c>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="51">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="39">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="48">
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="39">
         <v>4</v>
       </c>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="44">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44">
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35">
         <v>4</v>
       </c>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="35">
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="44">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="44">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="35">
+      <c r="BM3" s="44">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="35">
+      <c r="BN3" s="44">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="44">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="35">
+      <c r="BP3" s="44">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="35">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="35">
+      <c r="BQ3" s="44">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="44">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="35">
+      <c r="BS3" s="44">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="36">
+      <c r="BT3" s="49">
         <v>4</v>
       </c>
-      <c r="BU3" s="37">
+      <c r="BU3" s="50">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="38">
+      <c r="BV3" s="51">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="35">
+      <c r="BW3" s="44">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="44">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="35">
+      <c r="BY3" s="44">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="35">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="35">
+      <c r="BZ3" s="44">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="44">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="35">
+      <c r="CB3" s="44">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="35">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="35">
+      <c r="CC3" s="44">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="44">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="35">
+      <c r="CE3" s="44">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="36">
+      <c r="CF3" s="49">
         <v>4</v>
       </c>
-      <c r="CG3" s="37">
+      <c r="CG3" s="50">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="38">
+      <c r="CH3" s="51">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="35">
+      <c r="CI3" s="44">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="44">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="35">
+      <c r="CK3" s="44">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="35">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="35">
+      <c r="CL3" s="44">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="44">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="35">
+      <c r="CN3" s="44">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="35">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="35">
+      <c r="CO3" s="44">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="44">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="35">
+      <c r="CQ3" s="44">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="36">
+      <c r="CR3" s="49">
         <v>4</v>
       </c>
-      <c r="CS3" s="37">
+      <c r="CS3" s="50">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="38">
+      <c r="CT3" s="51">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7530,15 +7530,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7555,6 +7561,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="25">
+        <v>2</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="29">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="32">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="22">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="19">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="19">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+      <c r="CB2" s="20"/>
+      <c r="CC2" s="20"/>
+      <c r="CD2" s="20"/>
+      <c r="CE2" s="20"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="19">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="21"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="44">
+        <v>1</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="43">
+        <v>3</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="44">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="42">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="36">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="42">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="39">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="44">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="51"/>
+      <c r="BW3" s="44">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="44"/>
+      <c r="BZ3" s="44">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="44"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="44">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="44"/>
+      <c r="CE3" s="44"/>
+      <c r="CF3" s="49">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="51"/>
+      <c r="CI3" s="44">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="44"/>
+      <c r="CK3" s="44"/>
+      <c r="CL3" s="44">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="44"/>
+      <c r="CN3" s="44"/>
+      <c r="CO3" s="44">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="44"/>
+      <c r="CQ3" s="44"/>
+      <c r="CR3" s="49">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="50"/>
+      <c r="CT3" s="51"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5</v>
+      </c>
+      <c r="S5" s="9">
+        <v>5</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>5</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>2</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>5</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>2</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -7570,1506 +9076,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="25">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="29">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="32">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="22">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="19">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="19">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="20"/>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="20"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="19">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20"/>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="21"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="39">
-        <v>1</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="35">
-        <v>1</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="39">
-        <v>3</v>
-      </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="35">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="51">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="35">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="51">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="45">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="51">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="39">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="48">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="44">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="35"/>
-      <c r="BM3" s="35"/>
-      <c r="BN3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="35"/>
-      <c r="BP3" s="35"/>
-      <c r="BQ3" s="35">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="35"/>
-      <c r="BS3" s="35"/>
-      <c r="BT3" s="36">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="38"/>
-      <c r="BW3" s="35">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="35"/>
-      <c r="BY3" s="35"/>
-      <c r="BZ3" s="35">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="35"/>
-      <c r="CB3" s="35"/>
-      <c r="CC3" s="35">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="35"/>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="36">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="38"/>
-      <c r="CI3" s="35">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="35"/>
-      <c r="CK3" s="35"/>
-      <c r="CL3" s="35">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="35"/>
-      <c r="CN3" s="35"/>
-      <c r="CO3" s="35">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="36">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="38"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9">
-        <v>5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>5</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>5</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>2</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>5</v>
-      </c>
-      <c r="S7" s="9">
-        <v>5</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>2</v>
-      </c>
-      <c r="V7" s="9">
-        <v>2</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9086,21 +9092,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10123,8 +10123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="9">
-        <v>1000000</v>
+        <v>40000</v>
       </c>
       <c r="AC5" s="9">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>999999</v>
       </c>
       <c r="AE6" s="9">
-        <v>1000000</v>
+        <v>40000</v>
       </c>
       <c r="AF6" s="9">
         <v>140000</v>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80522892-858E-4C01-AB76-905DB27F2CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3447626E-8CC5-4C09-93A7-4F2C28F50918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32616" yWindow="4800" windowWidth="17280" windowHeight="8964" tabRatio="897" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -348,6 +348,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,54 +833,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27">
+        <v>2</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <v>4</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="22">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="19">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="21">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="19">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="21">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1308,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
@@ -1319,54 +1325,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27">
+        <v>2</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <v>4</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="22">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="19">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="21">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="19">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="21">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1809,54 +1815,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27">
+        <v>2</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <v>4</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="22">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="19">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="21">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="19">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="21">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2288,7 +2294,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2298,54 +2304,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27">
+        <v>2</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <v>4</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="22">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="19">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="21">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="19">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="21">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2583,13 +2589,13 @@
         <v>0.53</v>
       </c>
       <c r="K5" s="9">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="L5" s="9">
         <v>0.53</v>
       </c>
       <c r="M5" s="9">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="N5" s="15">
         <v>1</v>
@@ -2598,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="9">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="Q5" s="9">
         <v>0.56999999999999995</v>
@@ -2853,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FE587-3BB9-4285-A244-F51880842FF4}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>3</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2885,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
-        <v>3</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2896,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>3</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2907,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2918,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9">
-        <v>3</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -3246,330 +3252,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="25">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="29">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="27">
+        <v>2</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="34">
         <v>4</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="22">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="24">
         <v>5</v>
       </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="19">
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="21">
         <v>6</v>
       </c>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="19">
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="21">
         <v>7</v>
       </c>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="20"/>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="20"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="19">
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="21">
         <v>8</v>
       </c>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20"/>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="21"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="22"/>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="22"/>
+      <c r="CT2" s="23"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48">
+        <v>3</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="44">
-        <v>1</v>
-      </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="43">
-        <v>3</v>
-      </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="44">
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47">
+        <v>2</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="45">
+        <v>3</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46">
         <v>4</v>
       </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="42">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="36">
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="38">
         <v>4</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="39">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="41">
         <v>4</v>
       </c>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35">
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37">
         <v>4</v>
       </c>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="44">
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="44">
+      <c r="BM3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="44">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="44">
+      <c r="BN3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="44">
+      <c r="BP3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="44">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="44">
+      <c r="BQ3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="44">
+      <c r="BS3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="49">
+      <c r="BT3" s="51">
         <v>4</v>
       </c>
-      <c r="BU3" s="50">
+      <c r="BU3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="51">
+      <c r="BV3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="44">
+      <c r="BW3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="44">
+      <c r="BY3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="44">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="44">
+      <c r="BZ3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="44">
+      <c r="CB3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="44">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="44">
+      <c r="CC3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="44">
+      <c r="CE3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="49">
+      <c r="CF3" s="51">
         <v>4</v>
       </c>
-      <c r="CG3" s="50">
+      <c r="CG3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="51">
+      <c r="CH3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="44">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="44">
+      <c r="CI3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="44">
+      <c r="CK3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="44">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="44">
+      <c r="CL3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="44">
+      <c r="CN3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="44">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="44">
+      <c r="CO3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="44">
+      <c r="CQ3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="49">
+      <c r="CR3" s="51">
         <v>4</v>
       </c>
-      <c r="CS3" s="50">
+      <c r="CS3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="51">
+      <c r="CT3" s="53">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5425,330 +5431,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="25">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="29">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="27">
+        <v>2</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="34">
         <v>4</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="22">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="24">
         <v>5</v>
       </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="19">
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="21">
         <v>6</v>
       </c>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="19">
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="21">
         <v>7</v>
       </c>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="20"/>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="20"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="19">
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="21">
         <v>8</v>
       </c>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20"/>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="21"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="22"/>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="22"/>
+      <c r="CT2" s="23"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48">
+        <v>3</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="44">
-        <v>1</v>
-      </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="43">
-        <v>3</v>
-      </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="44">
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47">
+        <v>2</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="45">
+        <v>3</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46">
         <v>4</v>
       </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="42">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="36">
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="38">
         <v>4</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="39">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="41">
         <v>4</v>
       </c>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35">
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37">
         <v>4</v>
       </c>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="44">
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="44">
+      <c r="BM3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="44">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="44">
+      <c r="BN3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="44">
+      <c r="BP3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="44">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="44">
+      <c r="BQ3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="44">
+      <c r="BS3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="49">
+      <c r="BT3" s="51">
         <v>4</v>
       </c>
-      <c r="BU3" s="50">
+      <c r="BU3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="51">
+      <c r="BV3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="44">
+      <c r="BW3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="44">
+      <c r="BY3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="44">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="44">
+      <c r="BZ3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="44">
+      <c r="CB3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="44">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="44">
+      <c r="CC3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="44">
+      <c r="CE3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="49">
+      <c r="CF3" s="51">
         <v>4</v>
       </c>
-      <c r="CG3" s="50">
+      <c r="CG3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="51">
+      <c r="CH3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="44">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="44">
+      <c r="CI3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="44">
+      <c r="CK3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="44">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="44">
+      <c r="CL3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="44">
+      <c r="CN3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="44">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="44">
+      <c r="CO3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="44">
+      <c r="CQ3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="49">
+      <c r="CR3" s="51">
         <v>4</v>
       </c>
-      <c r="CS3" s="50">
+      <c r="CS3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="51">
+      <c r="CT3" s="53">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7596,284 +7602,284 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="25">
-        <v>2</v>
-      </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="29">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="27">
+        <v>2</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="34">
         <v>4</v>
       </c>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="22">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="24">
         <v>5</v>
       </c>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="19">
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="21">
         <v>6</v>
       </c>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="19">
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="21">
         <v>7</v>
       </c>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="20"/>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="20"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="19">
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="21">
         <v>8</v>
       </c>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20"/>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20"/>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="21"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="22"/>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="22"/>
+      <c r="CT2" s="23"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48">
+        <v>3</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="44">
-        <v>1</v>
-      </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="43">
-        <v>3</v>
-      </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="44">
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47">
+        <v>2</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="45">
+        <v>3</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46">
         <v>4</v>
       </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="42">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="36">
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="38">
         <v>4</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="42">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="39">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="41">
         <v>4</v>
       </c>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="35">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35">
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37">
         <v>4</v>
       </c>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="44">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="44"/>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="49">
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="51">
         <v>4</v>
       </c>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="51"/>
-      <c r="BW3" s="44">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="44"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="44">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="44"/>
-      <c r="CE3" s="44"/>
-      <c r="CF3" s="49">
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="46"/>
+      <c r="BY3" s="46"/>
+      <c r="BZ3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="46"/>
+      <c r="CB3" s="46"/>
+      <c r="CC3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="46"/>
+      <c r="CE3" s="46"/>
+      <c r="CF3" s="51">
         <v>4</v>
       </c>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="51"/>
-      <c r="CI3" s="44">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="44"/>
-      <c r="CK3" s="44"/>
-      <c r="CL3" s="44">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="44"/>
-      <c r="CN3" s="44"/>
-      <c r="CO3" s="44">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="44"/>
-      <c r="CQ3" s="44"/>
-      <c r="CR3" s="49">
+      <c r="CG3" s="52"/>
+      <c r="CH3" s="53"/>
+      <c r="CI3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="46"/>
+      <c r="CK3" s="46"/>
+      <c r="CL3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="46"/>
+      <c r="CN3" s="46"/>
+      <c r="CO3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="46"/>
+      <c r="CQ3" s="46"/>
+      <c r="CR3" s="51">
         <v>4</v>
       </c>
-      <c r="CS3" s="50"/>
-      <c r="CT3" s="51"/>
+      <c r="CS3" s="52"/>
+      <c r="CT3" s="53"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9154,54 +9160,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27">
+        <v>2</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <v>4</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="22">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="19">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="21">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="19">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="21">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9644,54 +9650,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27">
+        <v>2</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <v>4</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="22">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="19">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="21">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="19">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="21">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10123,8 +10129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10134,54 +10140,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29">
-        <v>3</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="27">
+        <v>2</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="31">
+        <v>3</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <v>4</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="22">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="24">
         <v>5</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="19">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="21">
         <v>6</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="19">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="21">
         <v>7</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="19">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="21">
         <v>8</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10304,8 +10310,8 @@
       <c r="F4" s="15">
         <v>18000</v>
       </c>
-      <c r="G4" s="9">
-        <v>21000</v>
+      <c r="G4" s="18">
+        <v>21006.6</v>
       </c>
       <c r="H4" s="9">
         <v>21800</v>
@@ -10313,17 +10319,17 @@
       <c r="I4" s="17">
         <v>311000</v>
       </c>
-      <c r="J4" s="9">
-        <v>21000</v>
-      </c>
-      <c r="K4" s="9">
-        <v>20000</v>
-      </c>
-      <c r="L4" s="9">
-        <v>21000</v>
-      </c>
-      <c r="M4" s="9">
-        <v>20000</v>
+      <c r="J4" s="18">
+        <v>21006.6</v>
+      </c>
+      <c r="K4" s="19">
+        <v>20021</v>
+      </c>
+      <c r="L4" s="18">
+        <v>21006.6</v>
+      </c>
+      <c r="M4" s="19">
+        <v>20021</v>
       </c>
       <c r="N4" s="15">
         <v>999999</v>
@@ -10331,8 +10337,8 @@
       <c r="O4" s="9">
         <v>140000</v>
       </c>
-      <c r="P4" s="9">
-        <v>20000</v>
+      <c r="P4" s="19">
+        <v>20021</v>
       </c>
       <c r="Q4" s="9">
         <v>311000</v>
@@ -10406,8 +10412,8 @@
       <c r="F5" s="15">
         <v>18000</v>
       </c>
-      <c r="G5" s="9">
-        <v>21000</v>
+      <c r="G5" s="18">
+        <v>21008</v>
       </c>
       <c r="H5" s="9">
         <v>140000</v>
@@ -10415,17 +10421,17 @@
       <c r="I5" s="17">
         <v>17400</v>
       </c>
-      <c r="J5" s="9">
-        <v>21000</v>
-      </c>
-      <c r="K5" s="9">
-        <v>30000</v>
-      </c>
-      <c r="L5" s="9">
-        <v>21000</v>
-      </c>
-      <c r="M5" s="9">
-        <v>30000</v>
+      <c r="J5" s="18">
+        <v>21008</v>
+      </c>
+      <c r="K5" s="19">
+        <v>20036</v>
+      </c>
+      <c r="L5" s="18">
+        <v>21008</v>
+      </c>
+      <c r="M5" s="19">
+        <v>20036</v>
       </c>
       <c r="N5" s="15">
         <v>999999</v>
@@ -10433,8 +10439,8 @@
       <c r="O5" s="15">
         <v>999999</v>
       </c>
-      <c r="P5" s="9">
-        <v>30000</v>
+      <c r="P5" s="19">
+        <v>20036</v>
       </c>
       <c r="Q5" s="9">
         <v>17400</v>
@@ -10508,8 +10514,8 @@
       <c r="F6" s="15">
         <v>18000</v>
       </c>
-      <c r="G6" s="9">
-        <v>21000</v>
+      <c r="G6" s="18">
+        <v>21007.4</v>
       </c>
       <c r="H6" s="15">
         <v>999999</v>
@@ -10517,17 +10523,17 @@
       <c r="I6" s="15">
         <v>999999</v>
       </c>
-      <c r="J6" s="9">
-        <v>21000</v>
-      </c>
-      <c r="K6" s="9">
-        <v>40000</v>
-      </c>
-      <c r="L6" s="9">
-        <v>21000</v>
-      </c>
-      <c r="M6" s="9">
-        <v>40000</v>
+      <c r="J6" s="18">
+        <v>21007.4</v>
+      </c>
+      <c r="K6" s="20">
+        <v>20026</v>
+      </c>
+      <c r="L6" s="18">
+        <v>21007.4</v>
+      </c>
+      <c r="M6" s="20">
+        <v>20026</v>
       </c>
       <c r="N6" s="15">
         <v>999999</v>
@@ -10535,8 +10541,8 @@
       <c r="O6" s="15">
         <v>999999</v>
       </c>
-      <c r="P6" s="9">
-        <v>40000</v>
+      <c r="P6" s="20">
+        <v>20026</v>
       </c>
       <c r="Q6" s="15">
         <v>999999</v>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3447626E-8CC5-4C09-93A7-4F2C28F50918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0624E91-9464-4685-BE16-2E612980659A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32616" yWindow="4800" windowWidth="17280" windowHeight="8964" tabRatio="897" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -402,6 +402,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,33 +451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2859,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FE587-3BB9-4285-A244-F51880842FF4}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3370,212 +3370,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48">
-        <v>3</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="43">
         <v>4</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47">
-        <v>2</v>
-      </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45">
-        <v>3</v>
-      </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46">
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="37">
+        <v>1</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="42">
+        <v>2</v>
+      </c>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="37">
         <v>4</v>
       </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="46">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="38">
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="53">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="47">
         <v>4</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="41">
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="53">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="50">
         <v>4</v>
       </c>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37">
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46">
         <v>4</v>
       </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="46">
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="37">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="37">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="46">
+      <c r="BM3" s="37">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="46">
+      <c r="BN3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="37">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="46">
+      <c r="BP3" s="37">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="46">
+      <c r="BQ3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="37">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="46">
+      <c r="BS3" s="37">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="51">
+      <c r="BT3" s="38">
         <v>4</v>
       </c>
-      <c r="BU3" s="52">
+      <c r="BU3" s="39">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="53">
+      <c r="BV3" s="40">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="46">
+      <c r="BW3" s="37">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="37">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="46">
+      <c r="BY3" s="37">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="46">
+      <c r="BZ3" s="37">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="37">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="46">
+      <c r="CB3" s="37">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="46">
+      <c r="CC3" s="37">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="37">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="46">
+      <c r="CE3" s="37">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="51">
+      <c r="CF3" s="38">
         <v>4</v>
       </c>
-      <c r="CG3" s="52">
+      <c r="CG3" s="39">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="53">
+      <c r="CH3" s="40">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="46">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="46">
+      <c r="CI3" s="37">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="37">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="46">
+      <c r="CK3" s="37">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="46">
+      <c r="CL3" s="37">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="37">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="46">
+      <c r="CN3" s="37">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="46">
+      <c r="CO3" s="37">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="37">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="46">
+      <c r="CQ3" s="37">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="51">
+      <c r="CR3" s="38">
         <v>4</v>
       </c>
-      <c r="CS3" s="52">
+      <c r="CS3" s="39">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="53">
+      <c r="CT3" s="40">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5357,6 +5357,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5372,31 +5397,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5549,212 +5549,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48">
-        <v>3</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="43">
         <v>4</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47">
-        <v>2</v>
-      </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45">
-        <v>3</v>
-      </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46">
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="37">
+        <v>1</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="42">
+        <v>2</v>
+      </c>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="37">
         <v>4</v>
       </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="46">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="38">
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="53">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="47">
         <v>4</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="41">
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="53">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="50">
         <v>4</v>
       </c>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37">
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46">
         <v>4</v>
       </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="46">
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="37">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="37">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="46">
+      <c r="BM3" s="37">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="46">
+      <c r="BN3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="37">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="46">
+      <c r="BP3" s="37">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="46">
+      <c r="BQ3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="37">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="46">
+      <c r="BS3" s="37">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="51">
+      <c r="BT3" s="38">
         <v>4</v>
       </c>
-      <c r="BU3" s="52">
+      <c r="BU3" s="39">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="53">
+      <c r="BV3" s="40">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="46">
+      <c r="BW3" s="37">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="37">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="46">
+      <c r="BY3" s="37">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="46">
+      <c r="BZ3" s="37">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="37">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="46">
+      <c r="CB3" s="37">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="46">
+      <c r="CC3" s="37">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="37">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="46">
+      <c r="CE3" s="37">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="51">
+      <c r="CF3" s="38">
         <v>4</v>
       </c>
-      <c r="CG3" s="52">
+      <c r="CG3" s="39">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="53">
+      <c r="CH3" s="40">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="46">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="46">
+      <c r="CI3" s="37">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="37">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="46">
+      <c r="CK3" s="37">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="46">
+      <c r="CL3" s="37">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="37">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="46">
+      <c r="CN3" s="37">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="46">
+      <c r="CO3" s="37">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="37">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="46">
+      <c r="CQ3" s="37">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="51">
+      <c r="CR3" s="38">
         <v>4</v>
       </c>
-      <c r="CS3" s="52">
+      <c r="CS3" s="39">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="53">
+      <c r="CT3" s="40">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7536,21 +7536,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7567,15 +7561,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7720,166 +7720,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48">
-        <v>3</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48">
+      <c r="C3" s="41">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43">
+        <v>3</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="43">
         <v>4</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47">
-        <v>2</v>
-      </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45">
-        <v>3</v>
-      </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46">
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="37">
+        <v>1</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="42">
+        <v>2</v>
+      </c>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="41">
+        <v>3</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="37">
         <v>4</v>
       </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="46">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="38">
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="53">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="47">
         <v>4</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="41">
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="53">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="50">
         <v>4</v>
       </c>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37">
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="46">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46">
         <v>4</v>
       </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="46"/>
-      <c r="BM3" s="46"/>
-      <c r="BN3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="46"/>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="46"/>
-      <c r="BS3" s="46"/>
-      <c r="BT3" s="51">
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="37">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="37"/>
+      <c r="BN3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="38">
         <v>4</v>
       </c>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="46"/>
-      <c r="BY3" s="46"/>
-      <c r="BZ3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="46"/>
-      <c r="CB3" s="46"/>
-      <c r="CC3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="46"/>
-      <c r="CE3" s="46"/>
-      <c r="CF3" s="51">
+      <c r="BU3" s="39"/>
+      <c r="BV3" s="40"/>
+      <c r="BW3" s="37">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="37"/>
+      <c r="BZ3" s="37">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="37"/>
+      <c r="CB3" s="37"/>
+      <c r="CC3" s="37">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="37"/>
+      <c r="CE3" s="37"/>
+      <c r="CF3" s="38">
         <v>4</v>
       </c>
-      <c r="CG3" s="52"/>
-      <c r="CH3" s="53"/>
-      <c r="CI3" s="46">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="46"/>
-      <c r="CK3" s="46"/>
-      <c r="CL3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="46"/>
-      <c r="CN3" s="46"/>
-      <c r="CO3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="46"/>
-      <c r="CQ3" s="46"/>
-      <c r="CR3" s="51">
+      <c r="CG3" s="39"/>
+      <c r="CH3" s="40"/>
+      <c r="CI3" s="37">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="37"/>
+      <c r="CK3" s="37"/>
+      <c r="CL3" s="37">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="37"/>
+      <c r="CN3" s="37"/>
+      <c r="CO3" s="37">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="37"/>
+      <c r="CQ3" s="37"/>
+      <c r="CR3" s="38">
         <v>4</v>
       </c>
-      <c r="CS3" s="52"/>
-      <c r="CT3" s="53"/>
+      <c r="CS3" s="39"/>
+      <c r="CT3" s="40"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9067,21 +9067,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9098,15 +9092,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10129,8 +10129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10349,8 +10349,8 @@
       <c r="S4" s="17">
         <v>60000</v>
       </c>
-      <c r="T4" s="15">
-        <v>999999</v>
+      <c r="T4" s="11">
+        <v>0</v>
       </c>
       <c r="U4" s="15">
         <v>999999</v>
@@ -10448,8 +10448,8 @@
       <c r="R5" s="15">
         <v>999999</v>
       </c>
-      <c r="S5" s="16">
-        <v>0</v>
+      <c r="S5" s="17">
+        <v>60000</v>
       </c>
       <c r="T5" s="15">
         <v>999999</v>
@@ -10550,8 +10550,8 @@
       <c r="R6" s="15">
         <v>999999</v>
       </c>
-      <c r="S6" s="17">
-        <v>60000</v>
+      <c r="S6" s="15">
+        <v>999999</v>
       </c>
       <c r="T6" s="15">
         <v>999999</v>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0624E91-9464-4685-BE16-2E612980659A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E719A71-852D-45AB-9619-691DF1A3BD75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15348" yWindow="6876" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="39">
   <si>
     <t>j</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Sell3</t>
+  </si>
+  <si>
+    <t>FAKE</t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -402,33 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,6 +428,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AH6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,8 +1030,8 @@
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
+      <c r="M4" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
@@ -1033,8 +1042,8 @@
       <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>8</v>
+      <c r="Q4" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>10</v>
@@ -1123,8 +1132,8 @@
       <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
+      <c r="M5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>10</v>
@@ -1135,8 +1144,8 @@
       <c r="P5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>9</v>
+      <c r="Q5" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>10</v>
@@ -1225,8 +1234,8 @@
       <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>18</v>
+      <c r="M6" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>10</v>
@@ -1237,8 +1246,8 @@
       <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>10</v>
+      <c r="Q6" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>10</v>
@@ -1314,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,8 +1522,8 @@
       <c r="L4" s="9">
         <v>128</v>
       </c>
-      <c r="M4" s="9">
-        <v>1188</v>
+      <c r="M4" s="11">
+        <v>1000</v>
       </c>
       <c r="N4" s="15">
         <v>1000</v>
@@ -1526,7 +1535,7 @@
         <v>1188</v>
       </c>
       <c r="Q4" s="9">
-        <v>4035</v>
+        <v>1188</v>
       </c>
       <c r="R4" s="15">
         <v>1000</v>
@@ -1615,8 +1624,8 @@
       <c r="L5" s="9">
         <v>128</v>
       </c>
-      <c r="M5" s="9">
-        <v>1188</v>
+      <c r="M5" s="11">
+        <v>1000</v>
       </c>
       <c r="N5" s="15">
         <v>1000</v>
@@ -1628,7 +1637,7 @@
         <v>1188</v>
       </c>
       <c r="Q5" s="9">
-        <v>4917</v>
+        <v>4035</v>
       </c>
       <c r="R5" s="15">
         <v>1000</v>
@@ -1717,8 +1726,8 @@
       <c r="L6" s="9">
         <v>128</v>
       </c>
-      <c r="M6" s="9">
-        <v>1188</v>
+      <c r="M6" s="11">
+        <v>1000</v>
       </c>
       <c r="N6" s="15">
         <v>1000</v>
@@ -1729,8 +1738,8 @@
       <c r="P6" s="9">
         <v>1188</v>
       </c>
-      <c r="Q6" s="15">
-        <v>1000</v>
+      <c r="Q6" s="9">
+        <v>4917</v>
       </c>
       <c r="R6" s="15">
         <v>1000</v>
@@ -1804,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,7 +2012,7 @@
       <c r="L4" s="9">
         <v>394.1</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>394.1</v>
       </c>
       <c r="N4" s="15">
@@ -2016,7 +2025,7 @@
         <v>394.1</v>
       </c>
       <c r="Q4" s="9">
-        <v>499.6</v>
+        <v>394.1</v>
       </c>
       <c r="R4" s="15">
         <v>400</v>
@@ -2105,7 +2114,7 @@
       <c r="L5" s="9">
         <v>394.1</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="11">
         <v>394.1</v>
       </c>
       <c r="N5" s="15">
@@ -2118,7 +2127,7 @@
         <v>394.1</v>
       </c>
       <c r="Q5" s="9">
-        <v>541.70000000000005</v>
+        <v>499.6</v>
       </c>
       <c r="R5" s="15">
         <v>400</v>
@@ -2207,7 +2216,7 @@
       <c r="L6" s="9">
         <v>394.1</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="11">
         <v>394.1</v>
       </c>
       <c r="N6" s="15">
@@ -2219,8 +2228,8 @@
       <c r="P6" s="9">
         <v>394.1</v>
       </c>
-      <c r="Q6" s="15">
-        <v>400</v>
+      <c r="Q6" s="9">
+        <v>541.70000000000005</v>
       </c>
       <c r="R6" s="15">
         <v>400</v>
@@ -2294,7 +2303,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2492,7 +2501,7 @@
       <c r="L4" s="9">
         <v>0.53</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>0.78</v>
       </c>
       <c r="N4" s="15">
@@ -2505,7 +2514,7 @@
         <v>0.78</v>
       </c>
       <c r="Q4" s="9">
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="R4" s="15">
         <v>1</v>
@@ -2594,7 +2603,7 @@
       <c r="L5" s="9">
         <v>0.53</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="11">
         <v>0.97</v>
       </c>
       <c r="N5" s="15">
@@ -2607,7 +2616,7 @@
         <v>0.97</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.56999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="R5" s="15">
         <v>1</v>
@@ -2696,7 +2705,7 @@
       <c r="L6" s="9">
         <v>0.53</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="11">
         <v>0.97</v>
       </c>
       <c r="N6" s="15">
@@ -2708,8 +2717,8 @@
       <c r="P6" s="9">
         <v>0.97</v>
       </c>
-      <c r="Q6" s="15">
-        <v>1</v>
+      <c r="Q6" s="9">
+        <v>0.56999999999999995</v>
       </c>
       <c r="R6" s="15">
         <v>1</v>
@@ -3014,7 +3023,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3068,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
   <dimension ref="A3:AK32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3234,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3370,212 +3379,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="43">
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48">
+        <v>3</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
         <v>4</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="37">
-        <v>1</v>
-      </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="42">
-        <v>2</v>
-      </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="37">
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47">
+        <v>2</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="45">
+        <v>3</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46">
         <v>4</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="53">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="53">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="47">
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="38">
         <v>4</v>
       </c>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="46">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="53">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="50">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="41">
         <v>4</v>
       </c>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="46">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46">
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37">
         <v>4</v>
       </c>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="37">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="37">
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="37">
+      <c r="BM3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="37">
+      <c r="BN3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="37">
+      <c r="BP3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="37">
+      <c r="BQ3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="37">
+      <c r="BS3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="38">
+      <c r="BT3" s="51">
         <v>4</v>
       </c>
-      <c r="BU3" s="39">
+      <c r="BU3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="40">
+      <c r="BV3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="37">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="37">
+      <c r="BW3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="37">
+      <c r="BY3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="37">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="37">
+      <c r="BZ3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="37">
+      <c r="CB3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="37">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="37">
+      <c r="CC3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="37">
+      <c r="CE3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="38">
+      <c r="CF3" s="51">
         <v>4</v>
       </c>
-      <c r="CG3" s="39">
+      <c r="CG3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="40">
+      <c r="CH3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="37">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="37">
+      <c r="CI3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="37">
+      <c r="CK3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="37">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="37">
+      <c r="CL3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="37">
+      <c r="CN3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="37">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="37">
+      <c r="CO3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="37">
+      <c r="CQ3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="38">
+      <c r="CR3" s="51">
         <v>4</v>
       </c>
-      <c r="CS3" s="39">
+      <c r="CS3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="40">
+      <c r="CT3" s="53">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -3972,13 +3981,13 @@
       <c r="AF5" s="17">
         <v>1</v>
       </c>
-      <c r="AG5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="17">
+      <c r="AG5" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="54">
         <v>1</v>
       </c>
       <c r="AJ5" s="15">
@@ -4009,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="AS5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="17">
         <v>0.99</v>
       </c>
-      <c r="AU5" s="15">
-        <v>1</v>
+      <c r="AU5" s="17">
+        <v>0.99</v>
       </c>
       <c r="AV5" s="15">
         <v>1</v>
@@ -4268,14 +4277,14 @@
       <c r="AF6" s="17">
         <v>1</v>
       </c>
-      <c r="AG6" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="AH6" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="AI6" s="17">
-        <v>0.8</v>
+      <c r="AG6" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="54">
+        <v>1</v>
       </c>
       <c r="AJ6" s="15">
         <v>1</v>
@@ -4305,13 +4314,13 @@
         <v>0.8</v>
       </c>
       <c r="AS6" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="AT6" s="17">
         <v>0.6</v>
       </c>
-      <c r="AT6" s="17">
+      <c r="AU6" s="17">
         <v>0.62</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>1</v>
       </c>
       <c r="AV6" s="15">
         <v>1</v>
@@ -4564,14 +4573,14 @@
       <c r="AF7" s="17">
         <v>1</v>
       </c>
-      <c r="AG7" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="AH7" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="AI7" s="17">
-        <v>0.4</v>
+      <c r="AG7" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="54">
+        <v>1</v>
       </c>
       <c r="AJ7" s="15">
         <v>1</v>
@@ -4601,13 +4610,13 @@
         <v>0.4</v>
       </c>
       <c r="AS7" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AT7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="17">
         <v>0.21</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>1</v>
       </c>
       <c r="AV7" s="15">
         <v>1</v>
@@ -4860,14 +4869,14 @@
       <c r="AF8" s="17">
         <v>0</v>
       </c>
-      <c r="AG8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="17">
-        <v>0</v>
+      <c r="AG8" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="54">
+        <v>1</v>
       </c>
       <c r="AJ8" s="15">
         <v>1</v>
@@ -4897,13 +4906,13 @@
         <v>0</v>
       </c>
       <c r="AS8" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="17">
         <v>0.5</v>
       </c>
-      <c r="AU8" s="15">
-        <v>1</v>
+      <c r="AU8" s="17">
+        <v>0.5</v>
       </c>
       <c r="AV8" s="15">
         <v>1</v>
@@ -5156,14 +5165,14 @@
       <c r="AF9" s="17">
         <v>1</v>
       </c>
-      <c r="AG9" s="17">
-        <v>0.4</v>
-      </c>
-      <c r="AH9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="17">
-        <v>0</v>
+      <c r="AG9" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="54">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="54">
+        <v>1</v>
       </c>
       <c r="AJ9" s="15">
         <v>1</v>
@@ -5193,13 +5202,13 @@
         <v>0</v>
       </c>
       <c r="AS9" s="17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AT9" s="17">
         <v>0</v>
       </c>
-      <c r="AU9" s="15">
-        <v>1</v>
+      <c r="AU9" s="17">
+        <v>0</v>
       </c>
       <c r="AV9" s="15">
         <v>1</v>
@@ -5357,6 +5366,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5372,31 +5406,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5406,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5549,212 +5558,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="43">
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48">
+        <v>3</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
         <v>4</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="37">
-        <v>1</v>
-      </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="42">
-        <v>2</v>
-      </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="37">
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47">
+        <v>2</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="45">
+        <v>3</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46">
         <v>4</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="53">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="53">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="47">
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="38">
         <v>4</v>
       </c>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="46">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="53">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="50">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="41">
         <v>4</v>
       </c>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="46">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46">
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37">
         <v>4</v>
       </c>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="37">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="37">
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="37">
+      <c r="BM3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="37">
+      <c r="BN3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="37">
+      <c r="BP3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="37">
+      <c r="BQ3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="37">
+      <c r="BS3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="38">
+      <c r="BT3" s="51">
         <v>4</v>
       </c>
-      <c r="BU3" s="39">
+      <c r="BU3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="40">
+      <c r="BV3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="37">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="37">
+      <c r="BW3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="37">
+      <c r="BY3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="37">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="37">
+      <c r="BZ3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="37">
+      <c r="CB3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="37">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="37">
+      <c r="CC3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="37">
+      <c r="CE3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="38">
+      <c r="CF3" s="51">
         <v>4</v>
       </c>
-      <c r="CG3" s="39">
+      <c r="CG3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="40">
+      <c r="CH3" s="53">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="37">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="37">
+      <c r="CI3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="46">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="37">
+      <c r="CK3" s="46">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="37">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="37">
+      <c r="CL3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="46">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="37">
+      <c r="CN3" s="46">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="37">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="37">
+      <c r="CO3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="46">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="37">
+      <c r="CQ3" s="46">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="38">
+      <c r="CR3" s="51">
         <v>4</v>
       </c>
-      <c r="CS3" s="39">
+      <c r="CS3" s="52">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="40">
+      <c r="CT3" s="53">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -6151,13 +6160,13 @@
       <c r="AF5" s="9">
         <v>0</v>
       </c>
-      <c r="AG5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="9">
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
         <v>0</v>
       </c>
       <c r="AJ5" s="15">
@@ -6193,7 +6202,7 @@
       <c r="AT5" s="9">
         <v>0</v>
       </c>
-      <c r="AU5" s="15">
+      <c r="AU5" s="9">
         <v>0</v>
       </c>
       <c r="AV5" s="15">
@@ -6447,13 +6456,13 @@
       <c r="AF6" s="9">
         <v>0</v>
       </c>
-      <c r="AG6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="9">
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
         <v>0</v>
       </c>
       <c r="AJ6" s="15">
@@ -6489,7 +6498,7 @@
       <c r="AT6" s="9">
         <v>0</v>
       </c>
-      <c r="AU6" s="15">
+      <c r="AU6" s="9">
         <v>0</v>
       </c>
       <c r="AV6" s="15">
@@ -6743,13 +6752,13 @@
       <c r="AF7" s="9">
         <v>0</v>
       </c>
-      <c r="AG7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
         <v>0</v>
       </c>
       <c r="AJ7" s="15">
@@ -6785,7 +6794,7 @@
       <c r="AT7" s="9">
         <v>0</v>
       </c>
-      <c r="AU7" s="15">
+      <c r="AU7" s="9">
         <v>0</v>
       </c>
       <c r="AV7" s="15">
@@ -7039,13 +7048,13 @@
       <c r="AF8" s="9">
         <v>0</v>
       </c>
-      <c r="AG8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="9">
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="11">
         <v>0</v>
       </c>
       <c r="AJ8" s="15">
@@ -7081,7 +7090,7 @@
       <c r="AT8" s="9">
         <v>0</v>
       </c>
-      <c r="AU8" s="15">
+      <c r="AU8" s="9">
         <v>0</v>
       </c>
       <c r="AV8" s="15">
@@ -7335,13 +7344,13 @@
       <c r="AF9" s="9">
         <v>0</v>
       </c>
-      <c r="AG9" s="9">
-        <v>250</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="9">
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="11">
         <v>0</v>
       </c>
       <c r="AJ9" s="15">
@@ -7372,12 +7381,12 @@
         <v>0</v>
       </c>
       <c r="AS9" s="9">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AT9" s="9">
         <v>0</v>
       </c>
-      <c r="AU9" s="15">
+      <c r="AU9" s="9">
         <v>0</v>
       </c>
       <c r="AV9" s="15">
@@ -7536,15 +7545,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7561,6 +7576,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AT19" sqref="AT19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="27">
+        <v>2</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="34">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="24">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="21">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="21">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="21">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="22"/>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="22"/>
+      <c r="CT2" s="23"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="47">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48">
+        <v>3</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
+        <v>4</v>
+      </c>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="46">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="47">
+        <v>2</v>
+      </c>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="45">
+        <v>3</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="46">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="38">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="37">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="37"/>
+      <c r="BH3" s="37">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="46">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="51">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="46">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="46"/>
+      <c r="BY3" s="46"/>
+      <c r="BZ3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="46"/>
+      <c r="CB3" s="46"/>
+      <c r="CC3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="46"/>
+      <c r="CE3" s="46"/>
+      <c r="CF3" s="51">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="52"/>
+      <c r="CH3" s="53"/>
+      <c r="CI3" s="46">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="46"/>
+      <c r="CK3" s="46"/>
+      <c r="CL3" s="46">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="46"/>
+      <c r="CN3" s="46"/>
+      <c r="CO3" s="46">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="46"/>
+      <c r="CQ3" s="46"/>
+      <c r="CR3" s="51">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="52"/>
+      <c r="CT3" s="53"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5</v>
+      </c>
+      <c r="S5" s="9">
+        <v>5</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>5</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>2</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>5</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>2</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -7576,1506 +9091,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27">
-        <v>2</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="24">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
-      <c r="BF2" s="25"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="21">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="21">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
-      <c r="CA2" s="22"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="21">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="22"/>
-      <c r="CK2" s="22"/>
-      <c r="CL2" s="22"/>
-      <c r="CM2" s="22"/>
-      <c r="CN2" s="22"/>
-      <c r="CO2" s="22"/>
-      <c r="CP2" s="22"/>
-      <c r="CQ2" s="22"/>
-      <c r="CR2" s="22"/>
-      <c r="CS2" s="22"/>
-      <c r="CT2" s="23"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41">
-        <v>1</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43">
-        <v>3</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="43">
-        <v>4</v>
-      </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="37">
-        <v>1</v>
-      </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="42">
-        <v>2</v>
-      </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="41">
-        <v>3</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="37">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="53">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="53">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="47">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="46">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="53">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="41">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="46">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="37">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="38">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="39"/>
-      <c r="BV3" s="40"/>
-      <c r="BW3" s="37">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="37">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="37"/>
-      <c r="CB3" s="37"/>
-      <c r="CC3" s="37">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="37"/>
-      <c r="CE3" s="37"/>
-      <c r="CF3" s="38">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="39"/>
-      <c r="CH3" s="40"/>
-      <c r="CI3" s="37">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="37"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="37">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="37"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="37">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="38">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="39"/>
-      <c r="CT3" s="40"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9">
-        <v>5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>5</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>5</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>2</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>5</v>
-      </c>
-      <c r="S7" s="9">
-        <v>5</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>2</v>
-      </c>
-      <c r="V7" s="9">
-        <v>2</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9092,21 +9107,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9116,8 +9125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9348,8 +9357,8 @@
       <c r="L4" s="9">
         <v>21000</v>
       </c>
-      <c r="M4" s="9">
-        <v>1000000</v>
+      <c r="M4" s="11">
+        <v>0</v>
       </c>
       <c r="N4" s="15">
         <v>999999</v>
@@ -9361,7 +9370,7 @@
         <v>1000000</v>
       </c>
       <c r="Q4" s="9">
-        <v>311000</v>
+        <v>1000000</v>
       </c>
       <c r="R4" s="15">
         <v>999999</v>
@@ -9450,8 +9459,8 @@
       <c r="L5" s="9">
         <v>21000</v>
       </c>
-      <c r="M5" s="9">
-        <v>1000000</v>
+      <c r="M5" s="11">
+        <v>0</v>
       </c>
       <c r="N5" s="15">
         <v>999999</v>
@@ -9463,7 +9472,7 @@
         <v>1000000</v>
       </c>
       <c r="Q5" s="9">
-        <v>17400</v>
+        <v>311000</v>
       </c>
       <c r="R5" s="15">
         <v>999999</v>
@@ -9552,8 +9561,8 @@
       <c r="L6" s="9">
         <v>21000</v>
       </c>
-      <c r="M6" s="9">
-        <v>1000000</v>
+      <c r="M6" s="11">
+        <v>0</v>
       </c>
       <c r="N6" s="15">
         <v>999999</v>
@@ -9564,8 +9573,8 @@
       <c r="P6" s="9">
         <v>1000000</v>
       </c>
-      <c r="Q6" s="15">
-        <v>999999</v>
+      <c r="Q6" s="9">
+        <v>17400</v>
       </c>
       <c r="R6" s="15">
         <v>999999</v>
@@ -9640,7 +9649,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F4"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9838,8 +9847,8 @@
       <c r="L4" s="9">
         <v>25</v>
       </c>
-      <c r="M4" s="9">
-        <v>60</v>
+      <c r="M4" s="11">
+        <v>25</v>
       </c>
       <c r="N4" s="15">
         <v>100</v>
@@ -9851,7 +9860,7 @@
         <v>60</v>
       </c>
       <c r="Q4" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R4" s="15">
         <v>100</v>
@@ -9940,8 +9949,8 @@
       <c r="L5" s="9">
         <v>25</v>
       </c>
-      <c r="M5" s="9">
-        <v>60</v>
+      <c r="M5" s="11">
+        <v>25</v>
       </c>
       <c r="N5" s="15">
         <v>100</v>
@@ -10042,8 +10051,8 @@
       <c r="L6" s="9">
         <v>25</v>
       </c>
-      <c r="M6" s="9">
-        <v>60</v>
+      <c r="M6" s="11">
+        <v>25</v>
       </c>
       <c r="N6" s="15">
         <v>100</v>
@@ -10054,7 +10063,7 @@
       <c r="P6" s="9">
         <v>60</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="9">
         <v>25</v>
       </c>
       <c r="R6" s="15">
@@ -10129,8 +10138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10328,8 +10337,8 @@
       <c r="L4" s="18">
         <v>21006.6</v>
       </c>
-      <c r="M4" s="19">
-        <v>20021</v>
+      <c r="M4" s="55">
+        <v>0</v>
       </c>
       <c r="N4" s="15">
         <v>999999</v>
@@ -10340,8 +10349,8 @@
       <c r="P4" s="19">
         <v>20021</v>
       </c>
-      <c r="Q4" s="9">
-        <v>311000</v>
+      <c r="Q4" s="19">
+        <v>20021</v>
       </c>
       <c r="R4" s="15">
         <v>999999</v>
@@ -10430,8 +10439,8 @@
       <c r="L5" s="18">
         <v>21008</v>
       </c>
-      <c r="M5" s="19">
-        <v>20036</v>
+      <c r="M5" s="55">
+        <v>0</v>
       </c>
       <c r="N5" s="15">
         <v>999999</v>
@@ -10443,7 +10452,7 @@
         <v>20036</v>
       </c>
       <c r="Q5" s="9">
-        <v>17400</v>
+        <v>311000</v>
       </c>
       <c r="R5" s="15">
         <v>999999</v>
@@ -10532,8 +10541,8 @@
       <c r="L6" s="18">
         <v>21007.4</v>
       </c>
-      <c r="M6" s="20">
-        <v>20026</v>
+      <c r="M6" s="55">
+        <v>0</v>
       </c>
       <c r="N6" s="15">
         <v>999999</v>
@@ -10544,8 +10553,8 @@
       <c r="P6" s="20">
         <v>20026</v>
       </c>
-      <c r="Q6" s="15">
-        <v>999999</v>
+      <c r="Q6" s="9">
+        <v>17400</v>
       </c>
       <c r="R6" s="15">
         <v>999999</v>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E719A71-852D-45AB-9619-691DF1A3BD75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7104F7-1A9B-496A-B646-E815077BD541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15348" yWindow="6876" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25680" yWindow="5604" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>Free pass</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   <si>
     <t>FAKE</t>
   </si>
+  <si>
+    <t>Flash evaporator</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +185,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -329,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -356,6 +362,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +417,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,39 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,54 +849,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="31">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="24">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="21">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="23">
         <v>6</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23">
         <v>7</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="21">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1004,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1015,8 +1022,8 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
+      <c r="H4" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
@@ -1031,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
@@ -1048,10 +1055,10 @@
       <c r="R4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="7" t="s">
@@ -1061,37 +1068,37 @@
         <v>10</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="Z4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AA4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="AD4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AE4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="AH4" s="15" t="s">
         <v>10</v>
@@ -1117,7 +1124,7 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1133,13 +1140,13 @@
         <v>14</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
+      <c r="O5" s="56" t="s">
+        <v>12</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>17</v>
@@ -1150,8 +1157,8 @@
       <c r="R5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>25</v>
+      <c r="S5" s="56" t="s">
+        <v>12</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>10</v>
@@ -1175,25 +1182,25 @@
         <v>10</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="AD5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AE5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="AG5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>10</v>
@@ -1235,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>10</v>
@@ -1289,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>19</v>
@@ -1323,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,54 +1341,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="31">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="24">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="21">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="23">
         <v>6</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23">
         <v>7</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="21">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1485,15 +1492,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
-        <v>4035</v>
+      <c r="C4" s="17">
+        <v>4917</v>
       </c>
       <c r="D4" s="9">
         <v>7492</v>
@@ -1510,8 +1517,8 @@
       <c r="H4" s="9">
         <v>7492</v>
       </c>
-      <c r="I4" s="9">
-        <v>4035</v>
+      <c r="I4" s="17">
+        <v>4917</v>
       </c>
       <c r="J4" s="9">
         <v>128</v>
@@ -1589,13 +1596,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
-        <v>4917</v>
+      <c r="C5" s="17">
+        <v>4035.22</v>
       </c>
       <c r="D5" s="9">
         <v>1288</v>
@@ -1612,8 +1619,8 @@
       <c r="H5" s="9">
         <v>1288</v>
       </c>
-      <c r="I5" s="9">
-        <v>4917</v>
+      <c r="I5" s="17">
+        <v>4035.22</v>
       </c>
       <c r="J5" s="9">
         <v>128</v>
@@ -1630,20 +1637,20 @@
       <c r="N5" s="15">
         <v>1000</v>
       </c>
-      <c r="O5" s="15">
-        <v>1000</v>
+      <c r="O5" s="9">
+        <v>1288</v>
       </c>
       <c r="P5" s="9">
         <v>1188</v>
       </c>
-      <c r="Q5" s="9">
-        <v>4035</v>
+      <c r="Q5" s="17">
+        <v>4917</v>
       </c>
       <c r="R5" s="15">
         <v>1000</v>
       </c>
-      <c r="S5" s="16">
-        <v>1</v>
+      <c r="S5" s="9">
+        <v>1288</v>
       </c>
       <c r="T5" s="15">
         <v>10</v>
@@ -1691,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -1738,14 +1745,14 @@
       <c r="P6" s="9">
         <v>1188</v>
       </c>
-      <c r="Q6" s="9">
-        <v>4917</v>
+      <c r="Q6" s="17">
+        <v>4035.22</v>
       </c>
       <c r="R6" s="15">
         <v>1000</v>
       </c>
-      <c r="S6" s="9">
-        <v>1288</v>
+      <c r="S6" s="15">
+        <v>10</v>
       </c>
       <c r="T6" s="15">
         <v>10</v>
@@ -1813,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,54 +1831,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="31">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="24">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="21">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="23">
         <v>6</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23">
         <v>7</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="21">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1975,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2025,7 @@
       <c r="N4" s="15">
         <v>400</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="18">
         <v>394.1</v>
       </c>
       <c r="P4" s="9">
@@ -2030,7 +2037,7 @@
       <c r="R4" s="15">
         <v>400</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="18">
         <v>394.1</v>
       </c>
       <c r="T4" s="15">
@@ -2079,7 +2086,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
@@ -2120,8 +2127,8 @@
       <c r="N5" s="15">
         <v>400</v>
       </c>
-      <c r="O5" s="15">
-        <v>400</v>
+      <c r="O5" s="18">
+        <v>394.1</v>
       </c>
       <c r="P5" s="9">
         <v>394.1</v>
@@ -2132,8 +2139,8 @@
       <c r="R5" s="15">
         <v>400</v>
       </c>
-      <c r="S5" s="16">
-        <v>1</v>
+      <c r="S5" s="18">
+        <v>394.1</v>
       </c>
       <c r="T5" s="15">
         <v>400</v>
@@ -2181,7 +2188,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -2234,8 +2241,8 @@
       <c r="R6" s="15">
         <v>400</v>
       </c>
-      <c r="S6" s="18">
-        <v>394.1</v>
+      <c r="S6" s="15">
+        <v>400</v>
       </c>
       <c r="T6" s="15">
         <v>400</v>
@@ -2303,7 +2310,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,54 +2320,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="31">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="24">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="21">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="23">
         <v>6</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23">
         <v>7</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="21">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2507,8 +2514,8 @@
       <c r="N4" s="15">
         <v>1</v>
       </c>
-      <c r="O4" s="9">
-        <v>0.78</v>
+      <c r="O4" s="17">
+        <v>0.6</v>
       </c>
       <c r="P4" s="9">
         <v>0.78</v>
@@ -2568,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
@@ -2609,8 +2616,8 @@
       <c r="N5" s="15">
         <v>1</v>
       </c>
-      <c r="O5" s="15">
-        <v>1</v>
+      <c r="O5" s="17">
+        <v>0.78</v>
       </c>
       <c r="P5" s="9">
         <v>0.97</v>
@@ -2621,8 +2628,8 @@
       <c r="R5" s="15">
         <v>1</v>
       </c>
-      <c r="S5" s="9">
-        <v>1</v>
+      <c r="S5" s="17">
+        <v>0.78</v>
       </c>
       <c r="T5" s="15">
         <v>1</v>
@@ -2670,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -2723,8 +2730,8 @@
       <c r="R6" s="15">
         <v>1</v>
       </c>
-      <c r="S6" s="17">
-        <v>0.6</v>
+      <c r="S6" s="15">
+        <v>1</v>
       </c>
       <c r="T6" s="15">
         <v>1</v>
@@ -3077,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
   <dimension ref="A3:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3085,7 +3092,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -3093,23 +3100,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3117,7 +3124,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3125,7 +3132,7 @@
     </row>
     <row r="32" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3243,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AT22" sqref="AT22"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BN7" sqref="BN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3261,330 +3268,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27">
-        <v>2</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="29">
+        <v>2</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="36">
         <v>4</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="24">
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="26">
         <v>5</v>
       </c>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
-      <c r="BF2" s="25"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="21">
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="23">
         <v>6</v>
       </c>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="21">
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="23">
         <v>7</v>
       </c>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
-      <c r="CA2" s="22"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="21">
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="24"/>
+      <c r="CC2" s="24"/>
+      <c r="CD2" s="24"/>
+      <c r="CE2" s="24"/>
+      <c r="CF2" s="24"/>
+      <c r="CG2" s="24"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="23">
         <v>8</v>
       </c>
-      <c r="CJ2" s="22"/>
-      <c r="CK2" s="22"/>
-      <c r="CL2" s="22"/>
-      <c r="CM2" s="22"/>
-      <c r="CN2" s="22"/>
-      <c r="CO2" s="22"/>
-      <c r="CP2" s="22"/>
-      <c r="CQ2" s="22"/>
-      <c r="CR2" s="22"/>
-      <c r="CS2" s="22"/>
-      <c r="CT2" s="23"/>
+      <c r="CJ2" s="24"/>
+      <c r="CK2" s="24"/>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="24"/>
+      <c r="CO2" s="24"/>
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="25"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48">
-        <v>3</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48">
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45">
         <v>4</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47">
-        <v>2</v>
-      </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45">
-        <v>3</v>
-      </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46">
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="44">
+        <v>2</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="43">
+        <v>3</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="39">
         <v>4</v>
       </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="46">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="38">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="55">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="55">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="49">
         <v>4</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="41">
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="55">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="52">
         <v>4</v>
       </c>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37">
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="48">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48">
         <v>4</v>
       </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="46">
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="39">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="46">
+      <c r="BM3" s="39">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="46">
+      <c r="BN3" s="39">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="39">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="46">
+      <c r="BP3" s="39">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="46">
+      <c r="BQ3" s="39">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="39">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="46">
+      <c r="BS3" s="39">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="51">
+      <c r="BT3" s="40">
         <v>4</v>
       </c>
-      <c r="BU3" s="52">
+      <c r="BU3" s="41">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="53">
+      <c r="BV3" s="42">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="46">
+      <c r="BW3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="39">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="46">
+      <c r="BY3" s="39">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="46">
+      <c r="BZ3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="39">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="46">
+      <c r="CB3" s="39">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="46">
+      <c r="CC3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="39">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="46">
+      <c r="CE3" s="39">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="51">
+      <c r="CF3" s="40">
         <v>4</v>
       </c>
-      <c r="CG3" s="52">
+      <c r="CG3" s="41">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="53">
+      <c r="CH3" s="42">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="46">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="46">
+      <c r="CI3" s="39">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="39">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="46">
+      <c r="CK3" s="39">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="46">
+      <c r="CL3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="39">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="46">
+      <c r="CN3" s="39">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="46">
+      <c r="CO3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="39">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="46">
+      <c r="CQ3" s="39">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="51">
+      <c r="CR3" s="40">
         <v>4</v>
       </c>
-      <c r="CS3" s="52">
+      <c r="CS3" s="41">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="53">
+      <c r="CT3" s="42">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -3901,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G5" s="17">
         <v>1</v>
@@ -3981,13 +3988,13 @@
       <c r="AF5" s="17">
         <v>1</v>
       </c>
-      <c r="AG5" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="54">
+      <c r="AG5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="21">
         <v>1</v>
       </c>
       <c r="AJ5" s="15">
@@ -4002,7 +4009,7 @@
       <c r="AM5" s="17">
         <v>1</v>
       </c>
-      <c r="AN5" s="15">
+      <c r="AN5" s="17">
         <v>1</v>
       </c>
       <c r="AO5" s="15">
@@ -4038,10 +4045,10 @@
       <c r="AY5" s="17">
         <v>1</v>
       </c>
-      <c r="AZ5" s="16">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="17">
+      <c r="AZ5" s="17">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="15">
         <v>1</v>
       </c>
       <c r="BB5" s="15">
@@ -4092,8 +4099,8 @@
       <c r="BQ5" s="9">
         <v>1</v>
       </c>
-      <c r="BR5" s="9">
-        <v>0.01</v>
+      <c r="BR5" s="17">
+        <v>1</v>
       </c>
       <c r="BS5" s="15">
         <v>1</v>
@@ -4119,8 +4126,8 @@
       <c r="BZ5" s="9">
         <v>1</v>
       </c>
-      <c r="CA5" s="9">
-        <v>0.1</v>
+      <c r="CA5" s="17">
+        <v>0.02</v>
       </c>
       <c r="CB5" s="15">
         <v>1</v>
@@ -4158,8 +4165,8 @@
       <c r="CM5" s="9">
         <v>1</v>
       </c>
-      <c r="CN5" s="9">
-        <v>0.1</v>
+      <c r="CN5" s="17">
+        <v>1</v>
       </c>
       <c r="CO5" s="9">
         <v>1</v>
@@ -4277,13 +4284,13 @@
       <c r="AF6" s="17">
         <v>1</v>
       </c>
-      <c r="AG6" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="54">
+      <c r="AG6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="21">
         <v>1</v>
       </c>
       <c r="AJ6" s="15">
@@ -4296,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="AM6" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="AN6" s="17">
         <v>0.06</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>1</v>
       </c>
       <c r="AO6" s="15">
         <v>1</v>
@@ -4334,11 +4341,11 @@
       <c r="AY6" s="17">
         <v>0.02</v>
       </c>
-      <c r="AZ6" s="16">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="17">
-        <v>0.02</v>
+      <c r="AZ6" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>1</v>
       </c>
       <c r="BB6" s="15">
         <v>1</v>
@@ -4388,8 +4395,8 @@
       <c r="BQ6" s="9">
         <v>1</v>
       </c>
-      <c r="BR6" s="9">
-        <v>0.01</v>
+      <c r="BR6" s="17">
+        <v>0.02</v>
       </c>
       <c r="BS6" s="15">
         <v>1</v>
@@ -4415,8 +4422,8 @@
       <c r="BZ6" s="9">
         <v>1</v>
       </c>
-      <c r="CA6" s="9">
-        <v>0.1</v>
+      <c r="CA6" s="17">
+        <v>0.38</v>
       </c>
       <c r="CB6" s="15">
         <v>1</v>
@@ -4454,8 +4461,8 @@
       <c r="CM6" s="9">
         <v>1</v>
       </c>
-      <c r="CN6" s="9">
-        <v>0.01</v>
+      <c r="CN6" s="17">
+        <v>0.02</v>
       </c>
       <c r="CO6" s="9">
         <v>1</v>
@@ -4573,13 +4580,13 @@
       <c r="AF7" s="17">
         <v>1</v>
       </c>
-      <c r="AG7" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="54">
+      <c r="AG7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="21">
         <v>1</v>
       </c>
       <c r="AJ7" s="15">
@@ -4592,9 +4599,9 @@
         <v>1</v>
       </c>
       <c r="AM7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="17">
         <v>1</v>
       </c>
       <c r="AO7" s="15">
@@ -4630,11 +4637,11 @@
       <c r="AY7" s="17">
         <v>0</v>
       </c>
-      <c r="AZ7" s="16">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="17">
-        <v>0</v>
+      <c r="AZ7" s="17">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>1</v>
       </c>
       <c r="BB7" s="15">
         <v>1</v>
@@ -4684,7 +4691,7 @@
       <c r="BQ7" s="9">
         <v>1</v>
       </c>
-      <c r="BR7" s="9">
+      <c r="BR7" s="17">
         <v>1</v>
       </c>
       <c r="BS7" s="15">
@@ -4711,8 +4718,8 @@
       <c r="BZ7" s="9">
         <v>1</v>
       </c>
-      <c r="CA7" s="9">
-        <v>1</v>
+      <c r="CA7" s="17">
+        <v>0.99</v>
       </c>
       <c r="CB7" s="15">
         <v>1</v>
@@ -4750,7 +4757,7 @@
       <c r="CM7" s="9">
         <v>1</v>
       </c>
-      <c r="CN7" s="9">
+      <c r="CN7" s="17">
         <v>1</v>
       </c>
       <c r="CO7" s="9">
@@ -4869,13 +4876,13 @@
       <c r="AF8" s="17">
         <v>0</v>
       </c>
-      <c r="AG8" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="54">
+      <c r="AG8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="21">
         <v>1</v>
       </c>
       <c r="AJ8" s="15">
@@ -4888,9 +4895,9 @@
         <v>1</v>
       </c>
       <c r="AM8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="17">
         <v>1</v>
       </c>
       <c r="AO8" s="15">
@@ -4926,11 +4933,11 @@
       <c r="AY8" s="17">
         <v>0</v>
       </c>
-      <c r="AZ8" s="16">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="17">
-        <v>0</v>
+      <c r="AZ8" s="17">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="15">
+        <v>1</v>
       </c>
       <c r="BB8" s="15">
         <v>1</v>
@@ -4980,8 +4987,8 @@
       <c r="BQ8" s="9">
         <v>1</v>
       </c>
-      <c r="BR8" s="9">
-        <v>0</v>
+      <c r="BR8" s="17">
+        <v>1</v>
       </c>
       <c r="BS8" s="15">
         <v>1</v>
@@ -5007,7 +5014,7 @@
       <c r="BZ8" s="9">
         <v>1</v>
       </c>
-      <c r="CA8" s="9">
+      <c r="CA8" s="17">
         <v>0</v>
       </c>
       <c r="CB8" s="15">
@@ -5046,8 +5053,8 @@
       <c r="CM8" s="9">
         <v>1</v>
       </c>
-      <c r="CN8" s="9">
-        <v>0</v>
+      <c r="CN8" s="17">
+        <v>1</v>
       </c>
       <c r="CO8" s="9">
         <v>1</v>
@@ -5165,13 +5172,13 @@
       <c r="AF9" s="17">
         <v>1</v>
       </c>
-      <c r="AG9" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="54">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="54">
+      <c r="AG9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="21">
         <v>1</v>
       </c>
       <c r="AJ9" s="15">
@@ -5184,10 +5191,10 @@
         <v>1</v>
       </c>
       <c r="AM9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="15">
-        <v>1</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN9" s="17">
+        <v>0</v>
       </c>
       <c r="AO9" s="15">
         <v>1</v>
@@ -5222,63 +5229,63 @@
       <c r="AY9" s="17">
         <v>0.02</v>
       </c>
-      <c r="AZ9" s="16">
-        <v>1</v>
-      </c>
-      <c r="BA9" s="17">
+      <c r="AZ9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="17">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="15">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="17">
         <v>0.02</v>
       </c>
-      <c r="BB9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BE9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BG9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BH9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BI9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BJ9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BK9" s="9">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="17">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BN9" s="9">
-        <v>1</v>
-      </c>
-      <c r="BO9" s="9">
-        <v>1</v>
-      </c>
-      <c r="BP9" s="15">
-        <v>1</v>
-      </c>
-      <c r="BQ9" s="9">
-        <v>1</v>
-      </c>
-      <c r="BR9" s="9">
-        <v>0</v>
-      </c>
       <c r="BS9" s="15">
         <v>1</v>
       </c>
@@ -5303,8 +5310,8 @@
       <c r="BZ9" s="9">
         <v>1</v>
       </c>
-      <c r="CA9" s="9">
-        <v>0</v>
+      <c r="CA9" s="17">
+        <v>1</v>
       </c>
       <c r="CB9" s="15">
         <v>1</v>
@@ -5342,8 +5349,8 @@
       <c r="CM9" s="9">
         <v>1</v>
       </c>
-      <c r="CN9" s="9">
-        <v>0</v>
+      <c r="CN9" s="17">
+        <v>0.02</v>
       </c>
       <c r="CO9" s="9">
         <v>1</v>
@@ -5366,6 +5373,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5381,31 +5413,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5415,8 +5422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AS10" sqref="AS10"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5440,330 +5447,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27">
-        <v>2</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="29">
+        <v>2</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="36">
         <v>4</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="24">
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="26">
         <v>5</v>
       </c>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
-      <c r="BF2" s="25"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="21">
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="23">
         <v>6</v>
       </c>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="21">
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="23">
         <v>7</v>
       </c>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
-      <c r="CA2" s="22"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="21">
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="24"/>
+      <c r="CC2" s="24"/>
+      <c r="CD2" s="24"/>
+      <c r="CE2" s="24"/>
+      <c r="CF2" s="24"/>
+      <c r="CG2" s="24"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="23">
         <v>8</v>
       </c>
-      <c r="CJ2" s="22"/>
-      <c r="CK2" s="22"/>
-      <c r="CL2" s="22"/>
-      <c r="CM2" s="22"/>
-      <c r="CN2" s="22"/>
-      <c r="CO2" s="22"/>
-      <c r="CP2" s="22"/>
-      <c r="CQ2" s="22"/>
-      <c r="CR2" s="22"/>
-      <c r="CS2" s="22"/>
-      <c r="CT2" s="23"/>
+      <c r="CJ2" s="24"/>
+      <c r="CK2" s="24"/>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="24"/>
+      <c r="CO2" s="24"/>
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="25"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48">
-        <v>3</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48">
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45">
         <v>4</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47">
-        <v>2</v>
-      </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45">
-        <v>3</v>
-      </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46">
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="44">
+        <v>2</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="43">
+        <v>3</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="39">
         <v>4</v>
       </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="46">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="38">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="55">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="55">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="49">
         <v>4</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="41">
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="55">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="52">
         <v>4</v>
       </c>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37">
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="48">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48">
         <v>4</v>
       </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="46">
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="39">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="46">
+      <c r="BM3" s="39">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="46">
+      <c r="BN3" s="39">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="39">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="46">
+      <c r="BP3" s="39">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="46">
+      <c r="BQ3" s="39">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="39">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="46">
+      <c r="BS3" s="39">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="51">
+      <c r="BT3" s="40">
         <v>4</v>
       </c>
-      <c r="BU3" s="52">
+      <c r="BU3" s="41">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="53">
+      <c r="BV3" s="42">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="46">
+      <c r="BW3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="39">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="46">
+      <c r="BY3" s="39">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="46">
+      <c r="BZ3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="39">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="46">
+      <c r="CB3" s="39">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="46">
+      <c r="CC3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="39">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="46">
+      <c r="CE3" s="39">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="51">
+      <c r="CF3" s="40">
         <v>4</v>
       </c>
-      <c r="CG3" s="52">
+      <c r="CG3" s="41">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="53">
+      <c r="CH3" s="42">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="46">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="46">
+      <c r="CI3" s="39">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="39">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="46">
+      <c r="CK3" s="39">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="46">
+      <c r="CL3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="39">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="46">
+      <c r="CN3" s="39">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="46">
+      <c r="CO3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="39">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="46">
+      <c r="CQ3" s="39">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="51">
+      <c r="CR3" s="40">
         <v>4</v>
       </c>
-      <c r="CS3" s="52">
+      <c r="CS3" s="41">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="53">
+      <c r="CT3" s="42">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -6217,7 +6224,7 @@
       <c r="AY5" s="9">
         <v>0</v>
       </c>
-      <c r="AZ5" s="16">
+      <c r="AZ5" s="9">
         <v>0</v>
       </c>
       <c r="BA5" s="15">
@@ -6513,7 +6520,7 @@
       <c r="AY6" s="9">
         <v>0</v>
       </c>
-      <c r="AZ6" s="16">
+      <c r="AZ6" s="9">
         <v>0</v>
       </c>
       <c r="BA6" s="15">
@@ -6809,7 +6816,7 @@
       <c r="AY7" s="9">
         <v>0</v>
       </c>
-      <c r="AZ7" s="16">
+      <c r="AZ7" s="9">
         <v>0</v>
       </c>
       <c r="BA7" s="15">
@@ -7105,7 +7112,7 @@
       <c r="AY8" s="9">
         <v>0</v>
       </c>
-      <c r="AZ8" s="16">
+      <c r="AZ8" s="9">
         <v>0</v>
       </c>
       <c r="BA8" s="15">
@@ -7401,7 +7408,7 @@
       <c r="AY9" s="9">
         <v>0</v>
       </c>
-      <c r="AZ9" s="16">
+      <c r="AZ9" s="9">
         <v>0</v>
       </c>
       <c r="BA9" s="15">
@@ -7545,21 +7552,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7576,1506 +7577,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AT19" sqref="AT19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27">
-        <v>2</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="34">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="24">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
-      <c r="BF2" s="25"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="21">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="21">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
-      <c r="CA2" s="22"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="22"/>
-      <c r="CG2" s="22"/>
-      <c r="CH2" s="23"/>
-      <c r="CI2" s="21">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="22"/>
-      <c r="CK2" s="22"/>
-      <c r="CL2" s="22"/>
-      <c r="CM2" s="22"/>
-      <c r="CN2" s="22"/>
-      <c r="CO2" s="22"/>
-      <c r="CP2" s="22"/>
-      <c r="CQ2" s="22"/>
-      <c r="CR2" s="22"/>
-      <c r="CS2" s="22"/>
-      <c r="CT2" s="23"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="47">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48">
-        <v>3</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48">
-        <v>4</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="46">
-        <v>1</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47">
-        <v>2</v>
-      </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45">
-        <v>3</v>
-      </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="46">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="44">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="46">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="38">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="44">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="46"/>
-      <c r="BM3" s="46"/>
-      <c r="BN3" s="46">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="46"/>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="46">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="46"/>
-      <c r="BS3" s="46"/>
-      <c r="BT3" s="51">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="52"/>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="46">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="46"/>
-      <c r="BY3" s="46"/>
-      <c r="BZ3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="46"/>
-      <c r="CB3" s="46"/>
-      <c r="CC3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="46"/>
-      <c r="CE3" s="46"/>
-      <c r="CF3" s="51">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="52"/>
-      <c r="CH3" s="53"/>
-      <c r="CI3" s="46">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="46"/>
-      <c r="CK3" s="46"/>
-      <c r="CL3" s="46">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="46"/>
-      <c r="CN3" s="46"/>
-      <c r="CO3" s="46">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="46"/>
-      <c r="CQ3" s="46"/>
-      <c r="CR3" s="51">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="52"/>
-      <c r="CT3" s="53"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1</v>
-      </c>
-      <c r="R5" s="9">
-        <v>5</v>
-      </c>
-      <c r="S5" s="9">
-        <v>5</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>2</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1</v>
-      </c>
-      <c r="R6" s="9">
-        <v>5</v>
-      </c>
-      <c r="S6" s="9">
-        <v>5</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>2</v>
-      </c>
-      <c r="V6" s="9">
-        <v>2</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1</v>
-      </c>
-      <c r="P7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="9">
-        <v>5</v>
-      </c>
-      <c r="S7" s="9">
-        <v>5</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>2</v>
-      </c>
-      <c r="V7" s="9">
-        <v>2</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>3</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -9091,6 +7592,1506 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="CH12" sqref="CH12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="29">
+        <v>2</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="33">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="36">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="26">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="23">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="25"/>
+      <c r="BW2" s="23">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="24"/>
+      <c r="CC2" s="24"/>
+      <c r="CD2" s="24"/>
+      <c r="CE2" s="24"/>
+      <c r="CF2" s="24"/>
+      <c r="CG2" s="24"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="23">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="24"/>
+      <c r="CK2" s="24"/>
+      <c r="CL2" s="24"/>
+      <c r="CM2" s="24"/>
+      <c r="CN2" s="24"/>
+      <c r="CO2" s="24"/>
+      <c r="CP2" s="24"/>
+      <c r="CQ2" s="24"/>
+      <c r="CR2" s="24"/>
+      <c r="CS2" s="24"/>
+      <c r="CT2" s="25"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44">
+        <v>2</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45">
+        <v>3</v>
+      </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45">
+        <v>4</v>
+      </c>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="44">
+        <v>2</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="43">
+        <v>3</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="55">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="55">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="49">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="55">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="52">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="48">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="39">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="39"/>
+      <c r="BS3" s="39"/>
+      <c r="BT3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="41"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="39">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="39"/>
+      <c r="BY3" s="39"/>
+      <c r="BZ3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="39"/>
+      <c r="CB3" s="39"/>
+      <c r="CC3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="39"/>
+      <c r="CE3" s="39"/>
+      <c r="CF3" s="40">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="41"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="39">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="39"/>
+      <c r="CK3" s="39"/>
+      <c r="CL3" s="39">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="39"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="39">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="39"/>
+      <c r="CQ3" s="39"/>
+      <c r="CR3" s="40">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="41"/>
+      <c r="CT3" s="42"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5</v>
+      </c>
+      <c r="S5" s="9">
+        <v>5</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5</v>
+      </c>
+      <c r="S6" s="9">
+        <v>5</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>2</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>5</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>2</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9107,15 +9108,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9125,8 +9132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9169,54 +9176,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="31">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="24">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="21">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="23">
         <v>6</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23">
         <v>7</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="21">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9648,8 +9655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9659,54 +9666,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="31">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="24">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="21">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="23">
         <v>6</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23">
         <v>7</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="21">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9854,7 +9861,7 @@
         <v>100</v>
       </c>
       <c r="O4" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P4" s="9">
         <v>60</v>
@@ -9866,7 +9873,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="T4" s="15">
         <v>100</v>
@@ -9955,7 +9962,7 @@
       <c r="N5" s="15">
         <v>100</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="9">
         <v>100</v>
       </c>
       <c r="P5" s="9">
@@ -9967,7 +9974,7 @@
       <c r="R5" s="15">
         <v>100</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="9">
         <v>100</v>
       </c>
       <c r="T5" s="15">
@@ -10138,8 +10145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10149,54 +10156,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="27">
-        <v>2</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="31">
-        <v>3</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="33">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36">
         <v>4</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="24">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="26">
         <v>5</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="21">
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="23">
         <v>6</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="21">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23">
         <v>7</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="21">
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="23">
         <v>8</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="25"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10337,14 +10344,14 @@
       <c r="L4" s="18">
         <v>21006.6</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="22">
         <v>0</v>
       </c>
       <c r="N4" s="15">
         <v>999999</v>
       </c>
-      <c r="O4" s="9">
-        <v>140000</v>
+      <c r="O4" s="17">
+        <v>60000</v>
       </c>
       <c r="P4" s="19">
         <v>20021</v>
@@ -10439,14 +10446,14 @@
       <c r="L5" s="18">
         <v>21008</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="22">
         <v>0</v>
       </c>
       <c r="N5" s="15">
         <v>999999</v>
       </c>
-      <c r="O5" s="15">
-        <v>999999</v>
+      <c r="O5" s="17">
+        <v>140000</v>
       </c>
       <c r="P5" s="19">
         <v>20036</v>
@@ -10458,7 +10465,7 @@
         <v>999999</v>
       </c>
       <c r="S5" s="17">
-        <v>60000</v>
+        <v>140000</v>
       </c>
       <c r="T5" s="15">
         <v>999999</v>
@@ -10541,7 +10548,7 @@
       <c r="L6" s="18">
         <v>21007.4</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="22">
         <v>0</v>
       </c>
       <c r="N6" s="15">

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7104F7-1A9B-496A-B646-E815077BD541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F96616-469E-49E7-A428-6B1A4F4374E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25680" yWindow="5604" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15060" yWindow="4224" windowWidth="30960" windowHeight="12204" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -369,6 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,33 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,7 +442,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,54 +849,54 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="26">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="27">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="23">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="24">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="24">
         <v>7</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="23">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1145,7 +1145,7 @@
       <c r="N5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1157,7 +1157,7 @@
       <c r="R5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="56" t="s">
+      <c r="S5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="7" t="s">
@@ -1253,7 +1253,7 @@
       <c r="P6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="7" t="s">
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,54 +1341,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="26">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="27">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="23">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="24">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="24">
         <v>7</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="23">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1746,7 +1746,7 @@
         <v>1188</v>
       </c>
       <c r="Q6" s="17">
-        <v>4035.22</v>
+        <v>2</v>
       </c>
       <c r="R6" s="15">
         <v>1000</v>
@@ -1831,54 +1831,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="26">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="27">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="23">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="24">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="24">
         <v>7</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="23">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -2320,54 +2320,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="26">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="27">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="23">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="24">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="24">
         <v>7</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="23">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -3268,330 +3268,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="29">
-        <v>2</v>
-      </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="33">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="30">
+        <v>2</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="34">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="37">
         <v>4</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="26">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="27">
         <v>5</v>
       </c>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="23">
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="24">
         <v>6</v>
       </c>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="25"/>
-      <c r="BW2" s="23">
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="24">
         <v>7</v>
       </c>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="24"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="23">
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="24">
         <v>8</v>
       </c>
-      <c r="CJ2" s="24"/>
-      <c r="CK2" s="24"/>
-      <c r="CL2" s="24"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="24"/>
-      <c r="CO2" s="24"/>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="24"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="25"/>
+      <c r="CJ2" s="25"/>
+      <c r="CK2" s="25"/>
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="25"/>
+      <c r="CR2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="26"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45">
-        <v>3</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="45">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
         <v>4</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="44">
-        <v>2</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="43">
-        <v>3</v>
-      </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="39">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
         <v>4</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="55">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="55">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="49">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
         <v>4</v>
       </c>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="48">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="55">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="52">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
         <v>4</v>
       </c>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="48">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48">
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
         <v>4</v>
       </c>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="39">
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="39">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="39">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="39">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="39">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="39">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="39">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="39">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="40">
+      <c r="BT3" s="54">
         <v>4</v>
       </c>
-      <c r="BU3" s="41">
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="42">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="39">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="39">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="39">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="39">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="39">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="39">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="40">
+      <c r="CF3" s="54">
         <v>4</v>
       </c>
-      <c r="CG3" s="41">
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="42">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="39">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="39">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="39">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="39">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="39">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="39">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="39">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="40">
+      <c r="CR3" s="54">
         <v>4</v>
       </c>
-      <c r="CS3" s="41">
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="42">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5373,6 +5373,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5388,31 +5413,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5422,8 +5422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BA8" sqref="BA8"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5447,330 +5447,330 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="29">
-        <v>2</v>
-      </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="33">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="30">
+        <v>2</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="34">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="37">
         <v>4</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="26">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="27">
         <v>5</v>
       </c>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="23">
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="24">
         <v>6</v>
       </c>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="25"/>
-      <c r="BW2" s="23">
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="24">
         <v>7</v>
       </c>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="24"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="23">
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="24">
         <v>8</v>
       </c>
-      <c r="CJ2" s="24"/>
-      <c r="CK2" s="24"/>
-      <c r="CL2" s="24"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="24"/>
-      <c r="CO2" s="24"/>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="24"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="25"/>
+      <c r="CJ2" s="25"/>
+      <c r="CK2" s="25"/>
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="25"/>
+      <c r="CR2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="26"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45">
-        <v>3</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="45">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
         <v>4</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="44">
-        <v>2</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="43">
-        <v>3</v>
-      </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="39">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
         <v>4</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="55">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="55">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="49">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
         <v>4</v>
       </c>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="48">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="55">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="52">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
         <v>4</v>
       </c>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="48">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48">
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
         <v>4</v>
       </c>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="39">
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="39">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="39">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="39">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="39">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="39">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="39">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="39">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="40">
+      <c r="BT3" s="54">
         <v>4</v>
       </c>
-      <c r="BU3" s="41">
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="42">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="39">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="39">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="39">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="39">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="39">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="39">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="40">
+      <c r="CF3" s="54">
         <v>4</v>
       </c>
-      <c r="CG3" s="41">
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="42">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="39">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="39">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="39">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="39">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="39">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="39">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="39">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="40">
+      <c r="CR3" s="54">
         <v>4</v>
       </c>
-      <c r="CS3" s="41">
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="42">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7552,15 +7552,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7577,21 +7583,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7618,284 +7618,284 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="29">
-        <v>2</v>
-      </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="33">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="30">
+        <v>2</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="34">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="37">
         <v>4</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="26">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="27">
         <v>5</v>
       </c>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="23">
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="24">
         <v>6</v>
       </c>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BN2" s="24"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
-      <c r="BS2" s="24"/>
-      <c r="BT2" s="24"/>
-      <c r="BU2" s="24"/>
-      <c r="BV2" s="25"/>
-      <c r="BW2" s="23">
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="24">
         <v>7</v>
       </c>
-      <c r="BX2" s="24"/>
-      <c r="BY2" s="24"/>
-      <c r="BZ2" s="24"/>
-      <c r="CA2" s="24"/>
-      <c r="CB2" s="24"/>
-      <c r="CC2" s="24"/>
-      <c r="CD2" s="24"/>
-      <c r="CE2" s="24"/>
-      <c r="CF2" s="24"/>
-      <c r="CG2" s="24"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="23">
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="24">
         <v>8</v>
       </c>
-      <c r="CJ2" s="24"/>
-      <c r="CK2" s="24"/>
-      <c r="CL2" s="24"/>
-      <c r="CM2" s="24"/>
-      <c r="CN2" s="24"/>
-      <c r="CO2" s="24"/>
-      <c r="CP2" s="24"/>
-      <c r="CQ2" s="24"/>
-      <c r="CR2" s="24"/>
-      <c r="CS2" s="24"/>
-      <c r="CT2" s="25"/>
+      <c r="CJ2" s="25"/>
+      <c r="CK2" s="25"/>
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="25"/>
+      <c r="CR2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="26"/>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44">
-        <v>2</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45">
-        <v>3</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="45">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
         <v>4</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="44">
-        <v>2</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="43">
-        <v>3</v>
-      </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="39">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
         <v>4</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="55">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="55">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="49">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
         <v>4</v>
       </c>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="48">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="55">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="52">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
         <v>4</v>
       </c>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="48">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48">
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
         <v>4</v>
       </c>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="39"/>
-      <c r="BS3" s="39"/>
-      <c r="BT3" s="40">
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="54">
         <v>4</v>
       </c>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="42"/>
-      <c r="BW3" s="39">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="39"/>
-      <c r="BY3" s="39"/>
-      <c r="BZ3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="39"/>
-      <c r="CC3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="39"/>
-      <c r="CE3" s="39"/>
-      <c r="CF3" s="40">
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="54">
         <v>4</v>
       </c>
-      <c r="CG3" s="41"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="39">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="39"/>
-      <c r="CK3" s="39"/>
-      <c r="CL3" s="39">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="39"/>
-      <c r="CN3" s="39"/>
-      <c r="CO3" s="39">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="39"/>
-      <c r="CQ3" s="39"/>
-      <c r="CR3" s="40">
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="54">
         <v>4</v>
       </c>
-      <c r="CS3" s="41"/>
-      <c r="CT3" s="42"/>
+      <c r="CS3" s="55"/>
+      <c r="CT3" s="56"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9083,15 +9083,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9108,21 +9114,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9176,54 +9176,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="26">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="27">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="23">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="24">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="24">
         <v>7</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="23">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -9666,54 +9666,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="26">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="27">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="23">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="24">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="24">
         <v>7</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="23">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -10145,8 +10145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10156,54 +10156,54 @@
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33">
-        <v>3</v>
-      </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="30">
+        <v>2</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <v>4</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="26">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="27">
         <v>5</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="23">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="24">
         <v>6</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="23">
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="24">
         <v>7</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="23">
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="24">
         <v>8</v>
       </c>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="26"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F96616-469E-49E7-A428-6B1A4F4374E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C18C1-0715-4873-ADE9-81E17E7B6F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15060" yWindow="4224" windowWidth="30960" windowHeight="12204" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1331,7 +1331,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2798,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2819,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>529.20000000000005</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2852,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BN7" sqref="BN7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9655,8 +9655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719C18C1-0715-4873-ADE9-81E17E7B6F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F162A-E300-4094-83A2-64B08796E9A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -418,6 +418,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,33 +467,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2798,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9531EC-CA23-40AE-B9E3-0DD65FEE9D1D}">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,7 +3050,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="9">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3061,7 +3061,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="9">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3072,7 +3072,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="9">
-        <v>3</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="CK23" sqref="CK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3386,212 +3386,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
         <v>4</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
         <v>4</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
         <v>4</v>
       </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
         <v>4</v>
       </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
+      <c r="BT3" s="41">
         <v>4</v>
       </c>
-      <c r="BU3" s="55">
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
+      <c r="CF3" s="41">
         <v>4</v>
       </c>
-      <c r="CG3" s="55">
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
+      <c r="CR3" s="41">
         <v>4</v>
       </c>
-      <c r="CS3" s="55">
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5373,6 +5373,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5388,31 +5413,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5423,7 +5423,7 @@
   <dimension ref="A2:CT9"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5565,212 +5565,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
         <v>4</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
         <v>4</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
         <v>4</v>
       </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
         <v>4</v>
       </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
+      <c r="BT3" s="41">
         <v>4</v>
       </c>
-      <c r="BU3" s="55">
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
+      <c r="CF3" s="41">
         <v>4</v>
       </c>
-      <c r="CG3" s="55">
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
+      <c r="CR3" s="41">
         <v>4</v>
       </c>
-      <c r="CS3" s="55">
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7552,21 +7552,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7583,15 +7577,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7601,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="CH12" sqref="CH12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7736,166 +7736,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
         <v>4</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
         <v>4</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
         <v>4</v>
       </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
         <v>4</v>
       </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
         <v>4</v>
       </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="54">
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41">
         <v>4</v>
       </c>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="54">
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40"/>
+      <c r="CE3" s="40"/>
+      <c r="CF3" s="41">
         <v>4</v>
       </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="54">
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40"/>
+      <c r="CQ3" s="40"/>
+      <c r="CR3" s="41">
         <v>4</v>
       </c>
-      <c r="CS3" s="55"/>
-      <c r="CT3" s="56"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="43"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -8201,19 +8201,19 @@
         <v>21</v>
       </c>
       <c r="C5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E5" s="15">
         <v>10</v>
       </c>
       <c r="F5" s="9">
-        <v>5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G5" s="9">
-        <v>5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H5" s="15">
         <v>10</v>
@@ -8237,58 +8237,58 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="P5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="R5" s="9">
-        <v>5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="S5" s="9">
-        <v>5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="T5" s="15">
         <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="V5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="W5" s="15">
         <v>10</v>
       </c>
       <c r="X5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Y5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AA5" s="9">
-        <v>3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AB5" s="9">
-        <v>3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AC5" s="9">
-        <v>3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AD5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AE5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AF5" s="9">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AG5" s="11">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="9">
-        <v>5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AN5" s="15">
         <v>10</v>
@@ -8318,22 +8318,22 @@
         <v>10</v>
       </c>
       <c r="AP5" s="9">
-        <v>3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AQ5" s="9">
-        <v>3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AR5" s="9">
-        <v>3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AS5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AT5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AU5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AV5" s="15">
         <v>0</v>
@@ -8345,10 +8345,10 @@
         <v>0</v>
       </c>
       <c r="AY5" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="BA5" s="15">
         <v>10</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="BM5" s="15">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="BP5" s="15">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="BS5" s="15">
         <v>0</v>
@@ -8423,13 +8423,13 @@
         <v>0</v>
       </c>
       <c r="BY5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="BZ5" s="9">
         <v>0</v>
       </c>
       <c r="CA5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="CB5" s="15">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="CK5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="CL5" s="9">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="CN5" s="9">
-        <v>2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="CO5" s="9">
         <v>0</v>
@@ -8506,10 +8506,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="9">
-        <v>5</v>
+        <v>0.12</v>
       </c>
       <c r="G6" s="9">
-        <v>5</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="H6" s="15">
         <v>10</v>
@@ -8533,58 +8533,58 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>5</v>
+        <v>9.4E-2</v>
       </c>
       <c r="S6" s="9">
-        <v>5</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="T6" s="15">
         <v>10</v>
       </c>
       <c r="U6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
         <v>10</v>
       </c>
       <c r="X6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="11">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="15">
         <v>10</v>
@@ -8614,22 +8614,22 @@
         <v>10</v>
       </c>
       <c r="AP6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="15">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="16">
         <v>0</v>
@@ -8802,10 +8802,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>5</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="H7" s="15">
         <v>10</v>
@@ -8829,58 +8829,58 @@
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S7" s="9">
-        <v>5</v>
+        <v>0.109</v>
       </c>
       <c r="T7" s="15">
         <v>10</v>
       </c>
       <c r="U7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
         <v>10</v>
       </c>
       <c r="X7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="11">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="15">
         <v>10</v>
@@ -8910,22 +8910,22 @@
         <v>10</v>
       </c>
       <c r="AP7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="15">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="16">
         <v>0</v>
@@ -9083,21 +9083,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9114,15 +9108,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F162A-E300-4094-83A2-64B08796E9A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594487DE-241E-4CCE-8154-7EBA566C7106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -418,33 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,6 +440,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2953,7 +2953,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3029,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9531EC-CA23-40AE-B9E3-0DD65FEE9D1D}">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="CK23" sqref="CK23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3386,212 +3386,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
         <v>4</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
         <v>4</v>
       </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
         <v>4</v>
       </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
         <v>4</v>
       </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
+      <c r="BT3" s="54">
         <v>4</v>
       </c>
-      <c r="BU3" s="42">
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
+      <c r="CF3" s="54">
         <v>4</v>
       </c>
-      <c r="CG3" s="42">
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
+      <c r="CR3" s="54">
         <v>4</v>
       </c>
-      <c r="CS3" s="42">
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5373,6 +5373,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5388,31 +5413,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5422,7 +5422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
@@ -5565,212 +5565,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
         <v>4</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
         <v>4</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
         <v>4</v>
       </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
         <v>4</v>
       </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
         <v>4</v>
       </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
+      <c r="BT3" s="54">
         <v>4</v>
       </c>
-      <c r="BU3" s="42">
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
+      <c r="CF3" s="54">
         <v>4</v>
       </c>
-      <c r="CG3" s="42">
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
+      <c r="CR3" s="54">
         <v>4</v>
       </c>
-      <c r="CS3" s="42">
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7552,15 +7552,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7577,6 +7583,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BR35" sqref="BR35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="30">
+        <v>2</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="34">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="37">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="27">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="24">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="24">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="24">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="25"/>
+      <c r="CK2" s="25"/>
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="25"/>
+      <c r="CR2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="26"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55"/>
+      <c r="CT3" s="56"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="S6" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.109</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -7592,1506 +9098,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30">
-        <v>2</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="34">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="27">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="24">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="24">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="25"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="25"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="24">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="25"/>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="25"/>
-      <c r="CQ2" s="25"/>
-      <c r="CR2" s="25"/>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="26"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="40"/>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40"/>
-      <c r="BS3" s="40"/>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40"/>
-      <c r="CK3" s="40"/>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40"/>
-      <c r="CN3" s="40"/>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40"/>
-      <c r="CQ3" s="40"/>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="43"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="R5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="S5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AU5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AZ5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>9.4E-2</v>
-      </c>
-      <c r="S6" s="9">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.109</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9108,21 +9114,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9132,7 +9132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
@@ -10145,8 +10145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594487DE-241E-4CCE-8154-7EBA566C7106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61097C68-FD2D-4B68-A50D-50111205818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1872" yWindow="3936" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2799,7 +2799,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2852,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3899,10 +3899,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="S5" s="17">
         <v>1</v>
@@ -3953,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="U5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V5" s="17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W5" s="15">
         <v>1</v>
@@ -4028,10 +4028,10 @@
         <v>1</v>
       </c>
       <c r="AT5" s="17">
-        <v>0.99</v>
-      </c>
-      <c r="AU5" s="17">
-        <v>0.99</v>
+        <v>1</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>1</v>
       </c>
       <c r="AV5" s="15">
         <v>1</v>
@@ -4204,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -4240,10 +4240,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="15">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>0.02</v>
       </c>
       <c r="AN6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AO6" s="15">
         <v>1</v>
@@ -4326,8 +4326,8 @@
       <c r="AT6" s="17">
         <v>0.6</v>
       </c>
-      <c r="AU6" s="17">
-        <v>0.62</v>
+      <c r="AU6" s="15">
+        <v>1</v>
       </c>
       <c r="AV6" s="15">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>0.02</v>
       </c>
       <c r="AZ6" s="17">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="BA6" s="15">
         <v>1</v>
@@ -4622,8 +4622,8 @@
       <c r="AT7" s="17">
         <v>0</v>
       </c>
-      <c r="AU7" s="17">
-        <v>0.21</v>
+      <c r="AU7" s="15">
+        <v>1</v>
       </c>
       <c r="AV7" s="15">
         <v>1</v>
@@ -4918,8 +4918,8 @@
       <c r="AT8" s="17">
         <v>0.5</v>
       </c>
-      <c r="AU8" s="17">
-        <v>0.5</v>
+      <c r="AU8" s="15">
+        <v>1</v>
       </c>
       <c r="AV8" s="15">
         <v>1</v>
@@ -5214,8 +5214,8 @@
       <c r="AT9" s="17">
         <v>0</v>
       </c>
-      <c r="AU9" s="17">
-        <v>0</v>
+      <c r="AU9" s="15">
+        <v>1</v>
       </c>
       <c r="AV9" s="15">
         <v>1</v>
@@ -5422,8 +5422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH37" sqref="AH37"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7298,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
@@ -7325,16 +7325,16 @@
         <v>0</v>
       </c>
       <c r="X9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AB9" s="9">
         <v>0</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="AD9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="11">
         <v>0</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AQ9" s="9">
         <v>0</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AT9" s="9">
         <v>0</v>
@@ -7601,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BR35" sqref="BR35"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="CL7" sqref="CL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8311,8 +8311,8 @@
       <c r="AM5" s="9">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AN5" s="15">
-        <v>10</v>
+      <c r="AN5" s="9">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AO5" s="15">
         <v>10</v>
@@ -8542,10 +8542,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>9.4E-2</v>
+        <v>0.12</v>
       </c>
       <c r="S6" s="9">
-        <v>7.1999999999999995E-2</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="T6" s="15">
         <v>10</v>
@@ -8605,10 +8605,10 @@
         <v>0</v>
       </c>
       <c r="AM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>10</v>
+        <v>0.12</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="AO6" s="15">
         <v>10</v>
@@ -8641,10 +8641,10 @@
         <v>0</v>
       </c>
       <c r="AY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="BA6" s="15">
         <v>10</v>
@@ -8802,7 +8802,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="G7" s="9">
         <v>0.14599999999999999</v>
@@ -8838,10 +8838,10 @@
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S7" s="9">
-        <v>0.109</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="T7" s="15">
         <v>10</v>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="AM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>10</v>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0.14599999999999999</v>
       </c>
       <c r="AO7" s="15">
         <v>10</v>
@@ -8937,10 +8937,10 @@
         <v>0</v>
       </c>
       <c r="AY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>0.14599999999999999</v>
       </c>
       <c r="BA7" s="15">
         <v>10</v>
@@ -10145,8 +10145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61097C68-FD2D-4B68-A50D-50111205818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377F2FA-CDAF-424F-BC73-834AE5453D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="3936" windowWidth="30960" windowHeight="12204" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32616" yWindow="6468" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -418,6 +418,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,33 +467,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1188,7 @@
         <v>35</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AD5" s="15" t="s">
         <v>10</v>
@@ -1299,7 +1299,7 @@
         <v>35</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AG6" s="15" t="s">
         <v>10</v>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1679,8 +1679,8 @@
       <c r="AB5" s="9">
         <v>1188</v>
       </c>
-      <c r="AC5" s="9">
-        <v>1</v>
+      <c r="AC5" s="17">
+        <v>4917</v>
       </c>
       <c r="AD5" s="15">
         <v>1</v>
@@ -1790,8 +1790,8 @@
       <c r="AE6" s="9">
         <v>1188</v>
       </c>
-      <c r="AF6" s="9">
-        <v>1288</v>
+      <c r="AF6" s="17">
+        <v>4917</v>
       </c>
       <c r="AG6" s="15">
         <v>1</v>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,7 +2170,7 @@
         <v>394.1</v>
       </c>
       <c r="AC5" s="9">
-        <v>400</v>
+        <v>499.6</v>
       </c>
       <c r="AD5" s="15">
         <v>400</v>
@@ -2281,7 +2281,7 @@
         <v>394.1</v>
       </c>
       <c r="AF6" s="9">
-        <v>394.1</v>
+        <v>499.6</v>
       </c>
       <c r="AG6" s="15">
         <v>400</v>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2659,7 +2659,7 @@
         <v>0.97</v>
       </c>
       <c r="AC5" s="9">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" s="15">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>0.97</v>
       </c>
       <c r="AF6" s="9">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="AG6" s="15">
         <v>1</v>
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="CE28" sqref="CE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3386,212 +3386,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -3899,10 +3899,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -3953,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="U5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="W5" s="15">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="AT5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AU5" s="15">
         <v>1</v>
@@ -4135,8 +4135,8 @@
       <c r="CC5" s="9">
         <v>1</v>
       </c>
-      <c r="CD5" s="9">
-        <v>1</v>
+      <c r="CD5" s="17">
+        <v>0.99</v>
       </c>
       <c r="CE5" s="15">
         <v>1</v>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="CN5" s="17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="CO5" s="9">
         <v>1</v>
@@ -4431,8 +4431,8 @@
       <c r="CC6" s="9">
         <v>1</v>
       </c>
-      <c r="CD6" s="9">
-        <v>1</v>
+      <c r="CD6" s="17">
+        <v>0.6</v>
       </c>
       <c r="CE6" s="15">
         <v>1</v>
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="CN6" s="17">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="CO6" s="9">
         <v>1</v>
@@ -4491,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7" s="17">
         <v>0.21</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V7" s="17">
         <v>0.21</v>
@@ -4620,7 +4620,7 @@
         <v>0.1</v>
       </c>
       <c r="AT7" s="17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AU7" s="15">
         <v>1</v>
@@ -4727,8 +4727,8 @@
       <c r="CC7" s="9">
         <v>1</v>
       </c>
-      <c r="CD7" s="9">
-        <v>1</v>
+      <c r="CD7" s="17">
+        <v>0.01</v>
       </c>
       <c r="CE7" s="15">
         <v>1</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="CN7" s="17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="CO7" s="9">
         <v>1</v>
@@ -5023,8 +5023,8 @@
       <c r="CC8" s="9">
         <v>1</v>
       </c>
-      <c r="CD8" s="9">
-        <v>1</v>
+      <c r="CD8" s="17">
+        <v>0.5</v>
       </c>
       <c r="CE8" s="15">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="CN8" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="CO8" s="9">
         <v>1</v>
@@ -5319,8 +5319,8 @@
       <c r="CC9" s="9">
         <v>1</v>
       </c>
-      <c r="CD9" s="9">
-        <v>1</v>
+      <c r="CD9" s="17">
+        <v>0</v>
       </c>
       <c r="CE9" s="15">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="CN9" s="17">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="CO9" s="9">
         <v>1</v>
@@ -5373,6 +5373,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5388,31 +5413,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5565,212 +5565,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7552,21 +7552,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7583,15 +7577,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7601,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="CL7" sqref="CL7"/>
+    <sheetView topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CV7" sqref="CV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7736,166 +7736,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55"/>
-      <c r="CT3" s="56"/>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40"/>
+      <c r="CE3" s="40"/>
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40"/>
+      <c r="CQ3" s="40"/>
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="43"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="CD5" s="9">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="CE5" s="15">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="CN6" s="9">
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="9">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="CN7" s="9">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="CO7" s="9">
         <v>0</v>
@@ -9083,21 +9083,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9114,15 +9108,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9132,8 +9132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9514,8 +9514,8 @@
       <c r="AB5" s="9">
         <v>1000000</v>
       </c>
-      <c r="AC5" s="9">
-        <v>0</v>
+      <c r="AC5" s="17">
+        <v>311000</v>
       </c>
       <c r="AD5" s="15">
         <v>999999</v>
@@ -9533,7 +9533,7 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
@@ -9625,8 +9625,8 @@
       <c r="AE6" s="9">
         <v>1000000</v>
       </c>
-      <c r="AF6" s="9">
-        <v>140000</v>
+      <c r="AF6" s="17">
+        <v>311000</v>
       </c>
       <c r="AG6" s="15">
         <v>999999</v>
@@ -9655,8 +9655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10116,7 +10116,7 @@
         <v>60</v>
       </c>
       <c r="AF6" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AG6" s="15">
         <v>25</v>
@@ -10145,8 +10145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10494,8 +10494,8 @@
       <c r="AB5" s="9">
         <v>40000</v>
       </c>
-      <c r="AC5" s="9">
-        <v>0</v>
+      <c r="AC5" s="17">
+        <v>311000</v>
       </c>
       <c r="AD5" s="15">
         <v>999999</v>
@@ -10605,8 +10605,8 @@
       <c r="AE6" s="9">
         <v>40000</v>
       </c>
-      <c r="AF6" s="9">
-        <v>140000</v>
+      <c r="AF6" s="17">
+        <v>311000</v>
       </c>
       <c r="AG6" s="15">
         <v>999999</v>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377F2FA-CDAF-424F-BC73-834AE5453D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BDD1A-E0A3-4506-B7C5-CB1CF4C7FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32616" yWindow="6468" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32556" yWindow="5232" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -418,33 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,6 +440,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,8 +1073,8 @@
       <c r="X4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>34</v>
+      <c r="Y4" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="Z4" s="15" t="s">
         <v>10</v>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,7 +1565,7 @@
       <c r="X4" s="9">
         <v>1</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="15">
         <v>1</v>
       </c>
       <c r="Z4" s="15">
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="CE28" sqref="CE28"/>
+    <sheetView topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BQ14" sqref="BQ14:BQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3386,212 +3386,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42">
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42">
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42">
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       <c r="BP5" s="15">
         <v>1</v>
       </c>
-      <c r="BQ5" s="9">
+      <c r="BQ5" s="15">
         <v>1</v>
       </c>
       <c r="BR5" s="17">
@@ -4392,7 +4392,7 @@
       <c r="BP6" s="15">
         <v>1</v>
       </c>
-      <c r="BQ6" s="9">
+      <c r="BQ6" s="15">
         <v>1</v>
       </c>
       <c r="BR6" s="17">
@@ -4688,7 +4688,7 @@
       <c r="BP7" s="15">
         <v>1</v>
       </c>
-      <c r="BQ7" s="9">
+      <c r="BQ7" s="15">
         <v>1</v>
       </c>
       <c r="BR7" s="17">
@@ -4984,7 +4984,7 @@
       <c r="BP8" s="15">
         <v>1</v>
       </c>
-      <c r="BQ8" s="9">
+      <c r="BQ8" s="15">
         <v>1</v>
       </c>
       <c r="BR8" s="17">
@@ -5280,7 +5280,7 @@
       <c r="BP9" s="15">
         <v>1</v>
       </c>
-      <c r="BQ9" s="9">
+      <c r="BQ9" s="15">
         <v>1</v>
       </c>
       <c r="BR9" s="17">
@@ -5373,6 +5373,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5388,31 +5413,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5565,212 +5565,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42">
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42">
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42">
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7552,15 +7552,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7577,21 +7583,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7736,166 +7736,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="40"/>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40"/>
-      <c r="BS3" s="40"/>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40"/>
-      <c r="CK3" s="40"/>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40"/>
-      <c r="CN3" s="40"/>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40"/>
-      <c r="CQ3" s="40"/>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="43"/>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55"/>
+      <c r="CT3" s="56"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9083,15 +9083,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9108,21 +9114,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10146,7 +10146,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10380,8 +10380,8 @@
       <c r="X4" s="9">
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
-        <v>0</v>
+      <c r="Y4" s="15">
+        <v>999999</v>
       </c>
       <c r="Z4" s="15">
         <v>999999</v>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BDD1A-E0A3-4506-B7C5-CB1CF4C7FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3446DFF-AA38-4215-9AB4-783F44D68E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32556" yWindow="5232" windowWidth="17280" windowHeight="12204" tabRatio="897" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
   <si>
     <t>j</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>EMPTY</t>
-  </si>
-  <si>
-    <t>Falling film evaporation</t>
   </si>
   <si>
     <t>Vaccuum distillation</t>
@@ -418,6 +415,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,33 +464,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -810,7 +807,7 @@
   <dimension ref="A2:AH18"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +844,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -1011,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1020,43 +1017,43 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>10</v>
@@ -1068,10 +1065,10 @@
         <v>10</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="Y4" s="15" t="s">
         <v>10</v>
@@ -1080,25 +1077,25 @@
         <v>10</v>
       </c>
       <c r="AA4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="AD4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AE4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="AH4" s="15" t="s">
         <v>10</v>
@@ -1113,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -1122,34 +1119,34 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>8</v>
@@ -1158,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>10</v>
@@ -1170,22 +1167,22 @@
         <v>10</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="9" t="s">
         <v>8</v>
@@ -1194,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="AE5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AF5" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="AG5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>10</v>
@@ -1224,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
@@ -1233,16 +1230,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>10</v>
@@ -1251,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>9</v>
@@ -1284,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="15" t="s">
         <v>10</v>
@@ -1296,7 +1293,7 @@
         <v>10</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>8</v>
@@ -1330,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,7 +1336,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -1668,7 +1665,7 @@
         <v>128</v>
       </c>
       <c r="Y5" s="9">
-        <v>1288</v>
+        <v>7492</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
@@ -1821,7 +1818,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,7 +1826,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -2158,7 +2155,7 @@
         <v>394.1</v>
       </c>
       <c r="Y5" s="9">
-        <v>394.1</v>
+        <v>541.70000000000005</v>
       </c>
       <c r="Z5" s="15">
         <v>400</v>
@@ -2309,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2318,7 +2315,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -2647,7 +2644,7 @@
         <v>0.53</v>
       </c>
       <c r="Y5" s="9">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="15">
         <v>1</v>
@@ -3037,7 +3034,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3047,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9">
         <v>50</v>
@@ -3058,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9">
         <v>35</v>
@@ -3069,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9">
         <v>0.27</v>
@@ -3092,7 +3089,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -3100,23 +3097,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3124,7 +3121,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3132,7 +3129,7 @@
     </row>
     <row r="32" spans="37:37" x14ac:dyDescent="0.3">
       <c r="AK32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3213,7 +3210,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -3222,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3230,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3238,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3250,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BQ14" sqref="BQ14:BQ15"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BM11" sqref="BM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3266,7 +3263,7 @@
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -3386,212 +3383,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5373,6 +5370,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5388,31 +5410,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5445,7 +5442,7 @@
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -5565,212 +5562,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7552,21 +7549,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7583,15 +7574,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7601,8 +7598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
   <dimension ref="A2:CT7"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CV7" sqref="CV7"/>
+    <sheetView topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BS24" sqref="BS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7616,7 +7613,7 @@
     <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -7736,170 +7733,170 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55"/>
-      <c r="CT3" s="56"/>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40"/>
+      <c r="CE3" s="40"/>
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40"/>
+      <c r="CQ3" s="40"/>
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="43"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1</v>
@@ -8198,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9">
         <v>2.8000000000000001E-2</v>
@@ -8494,7 +8491,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -8698,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="BR6" s="9">
-        <v>0.16700000000000001</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="BS6" s="15">
         <v>0</v>
@@ -8790,7 +8787,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
@@ -8994,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="BR7" s="9">
-        <v>0.125</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="BS7" s="15">
         <v>0</v>
@@ -9083,21 +9080,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9114,15 +9105,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9174,7 +9171,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -9656,7 +9653,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9664,7 +9661,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -9987,13 +9984,13 @@
         <v>100</v>
       </c>
       <c r="W5" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="X5" s="9">
         <v>25</v>
       </c>
       <c r="Y5" s="9">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="Z5" s="15">
         <v>25</v>
@@ -10146,7 +10143,7 @@
   <dimension ref="A2:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10154,7 +10151,7 @@
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -10483,7 +10480,7 @@
         <v>21000</v>
       </c>
       <c r="Y5" s="9">
-        <v>140000</v>
+        <v>21800</v>
       </c>
       <c r="Z5" s="15">
         <v>999999</v>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3446DFF-AA38-4215-9AB4-783F44D68E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E7631-D324-46C5-AC8F-7DB3C27E9B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25152" yWindow="7548" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -415,33 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,6 +437,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED029AD8-46FF-45D9-BA57-74278BA57925}">
   <dimension ref="A2:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
@@ -3247,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BM11" sqref="BM11"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BA18" sqref="BA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,212 +3383,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42">
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42">
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42">
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="AY7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="17">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="15">
         <v>1</v>
@@ -5370,6 +5370,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5385,31 +5410,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5562,212 +5562,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42">
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42">
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42">
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7549,15 +7549,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7574,6 +7580,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="30">
+        <v>2</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="34">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="37">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="27">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="24">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="24">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="24">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="25"/>
+      <c r="CK2" s="25"/>
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="25"/>
+      <c r="CR2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="26"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55"/>
+      <c r="CT3" s="56"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -7589,1506 +9095,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BS24" sqref="BS24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30">
-        <v>2</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="34">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="27">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="24">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="24">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="25"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="25"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="24">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="25"/>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="25"/>
-      <c r="CQ2" s="25"/>
-      <c r="CR2" s="25"/>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="26"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="40"/>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40"/>
-      <c r="BS3" s="40"/>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40"/>
-      <c r="CK3" s="40"/>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40"/>
-      <c r="CN3" s="40"/>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40"/>
-      <c r="CQ3" s="40"/>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="43"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="R5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="S5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="V5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AN5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AU5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="AZ5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AN6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AZ6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AN7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AZ7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9105,21 +9111,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E7631-D324-46C5-AC8F-7DB3C27E9B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA9307-B970-429A-9F68-67101F4BF2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25152" yWindow="7548" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -415,6 +415,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,33 +464,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3383,212 +3383,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5370,6 +5370,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5385,31 +5410,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5562,212 +5562,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7549,21 +7549,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7580,15 +7574,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7599,7 +7599,7 @@
   <dimension ref="A2:CT7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7733,166 +7733,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55"/>
-      <c r="CT3" s="56"/>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40"/>
+      <c r="CE3" s="40"/>
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40"/>
+      <c r="CQ3" s="40"/>
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="43"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -8198,19 +8198,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="D5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="E5" s="15">
         <v>10</v>
       </c>
       <c r="F5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H5" s="15">
         <v>10</v>
@@ -8234,58 +8234,58 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Q5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="R5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="S5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T5" s="15">
         <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="V5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="W5" s="15">
         <v>10</v>
       </c>
       <c r="X5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Y5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Z5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AA5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AB5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AC5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AD5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AE5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AF5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AG5" s="11">
         <v>0</v>
@@ -8306,31 +8306,31 @@
         <v>0</v>
       </c>
       <c r="AM5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AN5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AO5" s="15">
         <v>10</v>
       </c>
       <c r="AP5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AQ5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AR5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AS5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="AT5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="AU5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="AV5" s="15">
         <v>0</v>
@@ -8342,10 +8342,10 @@
         <v>0</v>
       </c>
       <c r="AY5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AZ5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BA5" s="15">
         <v>10</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BM5" s="15">
         <v>0</v>
@@ -8390,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="BP5" s="15">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="BR5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="BS5" s="15">
         <v>0</v>
@@ -8420,13 +8420,13 @@
         <v>0</v>
       </c>
       <c r="BY5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="BZ5" s="9">
         <v>0</v>
       </c>
       <c r="CA5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="CB5" s="15">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="CD5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="CE5" s="15">
         <v>0</v>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="CK5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="CL5" s="9">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="CN5" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>8.2799999999999992E-3</v>
       </c>
       <c r="CO5" s="9">
         <v>0</v>
@@ -9080,21 +9080,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9111,15 +9105,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFA9307-B970-429A-9F68-67101F4BF2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F99B7E-B578-4DF0-A3CA-33A99FC4DA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="2988" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -415,33 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,6 +437,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2795,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2827,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
-        <v>374.1</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3027,7 +3027,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,212 +3383,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42">
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42">
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42">
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -5370,6 +5370,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -5385,31 +5410,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5562,212 +5562,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="40">
+      <c r="BM3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40">
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="40">
+      <c r="BP3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40">
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="40">
+      <c r="BS3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42">
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="43">
+      <c r="BV3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40">
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="40">
+      <c r="BY3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40">
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="40">
+      <c r="CB3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40">
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="40">
+      <c r="CE3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42">
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="43">
+      <c r="CH3" s="56">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40">
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="40">
+      <c r="CK3" s="49">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40">
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="40">
+      <c r="CN3" s="49">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40">
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="40">
+      <c r="CQ3" s="49">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42">
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="43">
+      <c r="CT3" s="56">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7549,15 +7549,21 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7574,6 +7580,1506 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:CT7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BP5" sqref="BP5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="8.88671875" customWidth="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1"/>
+    <col min="54" max="62" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="30">
+        <v>2</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="34">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="37">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="27">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="24">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="25"/>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="25"/>
+      <c r="BQ2" s="25"/>
+      <c r="BR2" s="25"/>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="24">
+        <v>7</v>
+      </c>
+      <c r="BX2" s="25"/>
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="25"/>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="24">
+        <v>8</v>
+      </c>
+      <c r="CJ2" s="25"/>
+      <c r="CK2" s="25"/>
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="25"/>
+      <c r="CR2" s="25"/>
+      <c r="CS2" s="25"/>
+      <c r="CT2" s="26"/>
+    </row>
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51">
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="51">
+        <v>4</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="49">
+        <v>1</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50">
+        <v>2</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="48">
+        <v>3</v>
+      </c>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="47">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="49">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="47">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="41">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="47">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="48">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="44">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="40">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="54">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="55"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="49">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="49">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="54">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="55"/>
+      <c r="CT3" s="56"/>
+    </row>
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="12">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="12">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CN4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="12">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="12">
+        <v>2</v>
+      </c>
+      <c r="CT4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="R5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="T5" s="15">
+        <v>10</v>
+      </c>
+      <c r="U5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="V5" s="9">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="W5" s="15">
+        <v>10</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BM5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="BP5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="9">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="BZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="9">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="CB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="CE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="T6" s="15">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>10</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>10</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BM7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="BS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -7589,1506 +9095,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
-  <dimension ref="A2:CT7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="8.88671875" customWidth="1"/>
-    <col min="36" max="38" width="8.88671875" customWidth="1"/>
-    <col min="48" max="50" width="8.88671875" customWidth="1"/>
-    <col min="54" max="62" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30">
-        <v>2</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="34">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="37">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="27">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="24">
-        <v>6</v>
-      </c>
-      <c r="BL2" s="25"/>
-      <c r="BM2" s="25"/>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="25"/>
-      <c r="BP2" s="25"/>
-      <c r="BQ2" s="25"/>
-      <c r="BR2" s="25"/>
-      <c r="BS2" s="25"/>
-      <c r="BT2" s="25"/>
-      <c r="BU2" s="25"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="24">
-        <v>7</v>
-      </c>
-      <c r="BX2" s="25"/>
-      <c r="BY2" s="25"/>
-      <c r="BZ2" s="25"/>
-      <c r="CA2" s="25"/>
-      <c r="CB2" s="25"/>
-      <c r="CC2" s="25"/>
-      <c r="CD2" s="25"/>
-      <c r="CE2" s="25"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="24">
-        <v>8</v>
-      </c>
-      <c r="CJ2" s="25"/>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="25"/>
-      <c r="CQ2" s="25"/>
-      <c r="CR2" s="25"/>
-      <c r="CS2" s="25"/>
-      <c r="CT2" s="26"/>
-    </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45">
-        <v>2</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46">
-        <v>3</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46">
-        <v>4</v>
-      </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="40">
-        <v>1</v>
-      </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="45">
-        <v>2</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="44">
-        <v>3</v>
-      </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="56">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="40">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="56">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="50">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="56">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="44">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="53">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="49">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="40"/>
-      <c r="BN3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="40"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="40"/>
-      <c r="BS3" s="40"/>
-      <c r="BT3" s="41">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="40">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="40"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="40"/>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="40"/>
-      <c r="CE3" s="40"/>
-      <c r="CF3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="40">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="40"/>
-      <c r="CK3" s="40"/>
-      <c r="CL3" s="40">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="40"/>
-      <c r="CN3" s="40"/>
-      <c r="CO3" s="40">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="40"/>
-      <c r="CQ3" s="40"/>
-      <c r="CR3" s="41">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="43"/>
-    </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="12">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="12">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="12">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CM4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CP4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="12">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="12">
-        <v>1</v>
-      </c>
-      <c r="CS4" s="12">
-        <v>2</v>
-      </c>
-      <c r="CT4" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3.2799999999999999E-3</v>
-      </c>
-      <c r="E5" s="15">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H5" s="15">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="R5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="S5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="T5" s="15">
-        <v>10</v>
-      </c>
-      <c r="U5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="V5" s="9">
-        <v>3.2799999999999999E-3</v>
-      </c>
-      <c r="W5" s="15">
-        <v>10</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AN5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="AU5" s="9">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AZ5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BM5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="9">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="BP5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="BS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="9">
-        <v>5.5999999999999995E-4</v>
-      </c>
-      <c r="BZ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="9">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="CB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="CE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="9">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="CL5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="9">
-        <v>8.2799999999999992E-3</v>
-      </c>
-      <c r="CO5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="H6" s="15">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="T6" s="15">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>10</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AN6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AZ6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="9">
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="BS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="H7" s="15">
-        <v>10</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="T7" s="15">
-        <v>10</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>10</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AN7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AZ7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BM7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="9">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="BS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CR7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9105,21 +9111,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SS_dataV_AN.xlsx
+++ b/SS_dataV_AN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F99B7E-B578-4DF0-A3CA-33A99FC4DA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E445543-66B7-40C6-93C7-C3F3E44E35CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="2988" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="12204" tabRatio="897" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -415,6 +415,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,33 +464,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2795,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3247,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:CT9"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BA18" sqref="BA18"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="CE12" sqref="CE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3383,212 +3383,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="CD5" s="17">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="CE5" s="15">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="CN5" s="17">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="CO5" s="9">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="CD6" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="CE6" s="15">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="CN6" s="17">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="CO6" s="9">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="CD7" s="17">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="CE7" s="15">
         <v>1</v>
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="CN7" s="17">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="CO7" s="9">
         <v>1</v>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="CD9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE9" s="15">
         <v>1</v>
@@ -5347,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="CN9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO9" s="9">
         <v>1</v>
@@ -5370,6 +5370,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BK2:BV2"/>
     <mergeCell ref="BW2:CH2"/>
     <mergeCell ref="CI2:CT2"/>
@@ -5385,31 +5410,6 @@
     <mergeCell ref="CL3:CN3"/>
     <mergeCell ref="CO3:CQ3"/>
     <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5562,212 +5562,212 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49">
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BM3" s="49">
+      <c r="BM3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49">
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="BP3" s="49">
+      <c r="BP3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49">
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="BS3" s="49">
+      <c r="BS3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55">
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="BV3" s="56">
+      <c r="BV3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49">
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="BY3" s="49">
+      <c r="BY3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49">
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CB3" s="49">
+      <c r="CB3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49">
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CE3" s="49">
+      <c r="CE3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55">
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CH3" s="56">
+      <c r="CH3" s="43">
         <v>3.49650349650349</v>
       </c>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49">
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40">
         <v>3.14685314685314</v>
       </c>
-      <c r="CK3" s="49">
+      <c r="CK3" s="40">
         <v>3.1818181818181799</v>
       </c>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49">
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40">
         <v>3.2517482517482499</v>
       </c>
-      <c r="CN3" s="49">
+      <c r="CN3" s="40">
         <v>3.28671328671328</v>
       </c>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49">
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40">
         <v>3.35664335664335</v>
       </c>
-      <c r="CQ3" s="49">
+      <c r="CQ3" s="40">
         <v>3.3916083916083899</v>
       </c>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55">
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42">
         <v>3.4615384615384599</v>
       </c>
-      <c r="CT3" s="56">
+      <c r="CT3" s="43">
         <v>3.49650349650349</v>
       </c>
     </row>
@@ -7549,21 +7549,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7580,15 +7574,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7733,166 +7733,166 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51">
-        <v>3</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51">
-        <v>4</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="49">
-        <v>1</v>
-      </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50">
-        <v>2</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="48">
-        <v>3</v>
-      </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="49">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="49">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="47">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="41">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="48">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="44">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="40">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="40">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="40"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="49">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="54">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="55"/>
-      <c r="BV3" s="56"/>
-      <c r="BW3" s="49">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="49"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CG3" s="55"/>
-      <c r="CH3" s="56"/>
-      <c r="CI3" s="49">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="54">
-        <v>4</v>
-      </c>
-      <c r="CS3" s="55"/>
-      <c r="CT3" s="56"/>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45">
+        <v>2</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46">
+        <v>3</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46">
+        <v>4</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="40">
+        <v>1</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="45">
+        <v>2</v>
+      </c>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
+        <v>3</v>
+      </c>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="56">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="40">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="56">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="50">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="56">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="44">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="53">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="49">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="40">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="40"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="40">
+        <v>3</v>
+      </c>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="40">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CD3" s="40"/>
+      <c r="CE3" s="40"/>
+      <c r="CF3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="40">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="40">
+        <v>3</v>
+      </c>
+      <c r="CP3" s="40"/>
+      <c r="CQ3" s="40"/>
+      <c r="CR3" s="41">
+        <v>4</v>
+      </c>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="43"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -9080,21 +9080,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -9111,15 +9105,21 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
